--- a/РАБОЧИЙ СТОЛ/26,06,25 Черкизово Ташкент/дв 26,06,25 тшрсч чркзв.xlsx
+++ b/РАБОЧИЙ СТОЛ/26,06,25 Черкизово Ташкент/дв 26,06,25 тшрсч чркзв.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\26,06,25 Черкизово Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357070A-9825-4E62-8C39-B4E2D251D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6108C-60B9-4E53-9778-31E351E0EB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AF$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>бонус</t>
+  </si>
+  <si>
+    <t>метка2</t>
   </si>
 </sst>
 </file>
@@ -2673,13 +2676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX500"/>
+  <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,18 +2693,18 @@
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="13" width="0.5703125" customWidth="1"/>
-    <col min="14" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="20" width="5" customWidth="1"/>
-    <col min="21" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="52.28515625" customWidth="1"/>
-    <col min="32" max="32" width="7" customWidth="1"/>
-    <col min="33" max="50" width="8" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="11" max="14" width="0.5703125" customWidth="1"/>
+    <col min="15" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="21" width="5" customWidth="1"/>
+    <col min="22" max="31" width="6" customWidth="1"/>
+    <col min="32" max="32" width="52.28515625" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="51" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2752,8 +2755,9 @@
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY1" s="1"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2804,8 +2808,9 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY2" s="1"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2834,40 +2839,40 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>20</v>
@@ -2897,12 +2902,14 @@
         <v>20</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -2920,8 +2927,9 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY3" s="1"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2935,48 +2943,48 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -2996,8 +3004,9 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY4" s="1"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3013,17 +3022,14 @@
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:Q5" si="0">SUM(J6:J500)</f>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:R5" si="0">SUM(K6:K500)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>1817.8500000000001</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -3031,69 +3037,72 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>363.57</v>
+        <v>2180</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>2130.3696000000004</v>
+        <v>363.57</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
+        <v>2130.3696000000004</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4">
-        <f t="shared" ref="U5:AD5" si="1">SUM(U6:U500)</f>
+      <c r="U5" s="1"/>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:AE5" si="1">SUM(V6:V500)</f>
         <v>235.01079999999999</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
         <v>414.87679999999995</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
         <v>244.75719999999998</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
         <v>710.28319999999985</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
         <v>327.75700000000001</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
         <v>397.5</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
         <v>694.39900000000011</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
         <v>285.21300000000002</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
         <v>547.197</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
         <v>425.3146000000001</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="4">
-        <f>SUM(AF6:AF500)</f>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="4">
+        <f>SUM(AG6:AG500)</f>
         <v>858.97960000000012</v>
       </c>
-      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -3111,8 +3120,9 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY5" s="1"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
@@ -3134,36 +3144,36 @@
       <c r="I6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
-        <f t="shared" ref="K6:K37" si="2">E6-J6</f>
+      <c r="J6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:L37" si="2">E6-K6</f>
         <v>5.2320000000000002</v>
       </c>
-      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="10">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
         <f>E6/5</f>
         <v>1.0464</v>
       </c>
-      <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10">
-        <f>(F6+N6+P6)/O6</f>
+      <c r="R6" s="12"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <f>(F6+O6+Q6)/P6</f>
         <v>-5</v>
       </c>
-      <c r="T6" s="10">
-        <f>(F6+N6)/O6</f>
+      <c r="U6" s="10">
+        <f>(F6+O6)/P6</f>
         <v>-5</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="10">
         <f>IFERROR(VLOOKUP(A6,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
       <c r="W6" s="10">
         <v>0</v>
       </c>
@@ -3188,9 +3198,11 @@
       <c r="AD6" s="10">
         <v>0</v>
       </c>
-      <c r="AE6" s="10"/>
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="10"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -3208,8 +3220,9 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY6" s="1"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
@@ -3231,36 +3244,36 @@
       <c r="I7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10">
+      <c r="J7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10">
-        <f t="shared" ref="O7:O37" si="3">E7/5</f>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10">
+        <f t="shared" ref="P7:P37" si="3">E7/5</f>
         <v>0.6</v>
       </c>
-      <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10">
-        <f t="shared" ref="S7:S37" si="4">(F7+N7+P7)/O7</f>
+      <c r="R7" s="12"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10">
+        <f t="shared" ref="T7:T37" si="4">(F7+O7+Q7)/P7</f>
         <v>-5</v>
       </c>
-      <c r="T7" s="10">
-        <f t="shared" ref="T7:T37" si="5">(F7+N7)/O7</f>
+      <c r="U7" s="10">
+        <f t="shared" ref="U7:U37" si="5">(F7+O7)/P7</f>
         <v>-5</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <f>IFERROR(VLOOKUP(A7,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
       <c r="W7" s="10">
         <v>0</v>
       </c>
@@ -3285,9 +3298,11 @@
       <c r="AD7" s="10">
         <v>0</v>
       </c>
-      <c r="AE7" s="10"/>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="10"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -3305,8 +3320,9 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY7" s="1"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
@@ -3328,36 +3344,36 @@
       <c r="I8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10">
+      <c r="J8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10">
+      <c r="R8" s="12"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <f>IFERROR(VLOOKUP(A8,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
       <c r="W8" s="10">
         <v>0</v>
       </c>
@@ -3382,9 +3398,11 @@
       <c r="AD8" s="10">
         <v>0</v>
       </c>
-      <c r="AE8" s="10"/>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="10"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -3402,8 +3420,9 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY8" s="1"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>37</v>
       </c>
@@ -3425,36 +3444,36 @@
       <c r="I9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10">
+      <c r="J9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10">
         <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
-      <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10">
+      <c r="R9" s="12"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <f>IFERROR(VLOOKUP(A9,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
       <c r="W9" s="10">
         <v>0</v>
       </c>
@@ -3479,9 +3498,11 @@
       <c r="AD9" s="10">
         <v>0</v>
       </c>
-      <c r="AE9" s="10"/>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="1"/>
+      <c r="AG9" s="10"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -3499,8 +3520,9 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY9" s="1"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -3523,54 +3545,52 @@
         <v>1030112235</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>-46.052</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
         <v>120</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="3"/>
         <v>-9.2103999999999999</v>
       </c>
-      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
+      <c r="R10" s="5"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
         <f t="shared" si="4"/>
         <v>-13.028750108572918</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="5"/>
         <v>-13.028750108572918</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <f>IFERROR(VLOOKUP(A10,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-2.9460000000000002</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>12.409000000000001</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>9.1620000000000008</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
       </c>
       <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
         <v>11.885</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -3578,14 +3598,16 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="1">
-        <f t="shared" ref="AF10:AF33" si="6">G10*P10</f>
+      <c r="AG10" s="1">
+        <f t="shared" ref="AG10:AG33" si="6">G10*Q10</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -3603,8 +3625,9 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY10" s="1"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -3631,52 +3654,50 @@
         <v>1030112635</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
         <v>-19.753</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
         <v>130</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="3"/>
         <v>-3.9506000000000001</v>
       </c>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1">
+      <c r="R11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
         <f t="shared" si="4"/>
         <v>-34.028755125803677</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="5"/>
         <v>-34.028755125803677</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <f>IFERROR(VLOOKUP(A11,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-1.9431999999999998</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>12.659800000000001</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>-0.17560000000000001</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>14.7384</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>-0.64640000000000009</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1">
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1">
         <v>11.622833333333331</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
@@ -3684,14 +3705,16 @@
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -3709,8 +3732,9 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY11" s="1"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3739,69 +3763,69 @@
         <v>1030115552</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
         <f t="shared" si="2"/>
         <v>78.138000000000005</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
         <v>150</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="3"/>
         <v>15.627600000000001</v>
       </c>
-      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1">
+      <c r="R12" s="5"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
         <f t="shared" si="4"/>
         <v>27.032237835624148</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="5"/>
         <v>27.032237835624148</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <f>IFERROR(VLOOKUP(A12,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>12.2658</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>15.2486</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>3.1114000000000002</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>27.975999999999999</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>1.8033999999999999</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>11.21966666666667</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>18.213000000000001</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>23.797000000000001</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>13.714600000000001</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AF12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -3819,8 +3843,9 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY12" s="1"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -3847,72 +3872,72 @@
         <v>1030115404</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
         <v>120</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="3"/>
         <v>45.4</v>
       </c>
-      <c r="P13" s="5">
-        <f t="shared" ref="P13:P33" si="7">23*O13-N13-F13</f>
+      <c r="Q13" s="5">
+        <f t="shared" ref="Q13:Q33" si="7">23*P13-O13-F13</f>
         <v>385.20000000000005</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1">
+      <c r="R13" s="5"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="5"/>
         <v>14.515418502202644</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <f>IFERROR(VLOOKUP(A13,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>30.8</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>34.200000000000003</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>91.2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>48.4</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>68.5</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>99.166666666666671</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>33</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>59.2</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>46</v>
       </c>
-      <c r="AE13" s="21" t="s">
+      <c r="AF13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <f t="shared" si="6"/>
         <v>154.08000000000004</v>
       </c>
-      <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -3930,8 +3955,9 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY13" s="1"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3960,67 +3986,67 @@
         <v>1030804004</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
         <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
+      <c r="R14" s="5"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <f t="shared" si="4"/>
         <v>23.072289156626503</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="5"/>
         <v>23.072289156626503</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <f>IFERROR(VLOOKUP(A14,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>7.8</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>9</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>19.8</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>31.2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>22.2</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>32.25</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>40.166666666666657</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>9</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>33.6</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AF14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -4038,8 +4064,9 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY14" s="1"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -4066,68 +4093,68 @@
         <v>1030419235</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <f t="shared" si="3"/>
         <v>34.4</v>
       </c>
-      <c r="P15" s="5">
-        <f>19*O15-N15-F15</f>
+      <c r="Q15" s="5">
+        <f>19*P15-O15-F15</f>
         <v>462.6</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1">
+      <c r="R15" s="5"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="5"/>
         <v>5.5523255813953494</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <f>IFERROR(VLOOKUP(A15,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>8.4</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>6.2</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>31</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>-0.4</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>0</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
         <v>10.6</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>39.6</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>6</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1">
         <f t="shared" si="6"/>
         <v>138.78</v>
       </c>
-      <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -4145,8 +4172,9 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY15" s="1"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -4173,68 +4201,68 @@
         <v>1030412236</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="P16" s="5">
-        <f>21*O16-N16-F16</f>
+      <c r="Q16" s="5">
+        <f>21*P16-O16-F16</f>
         <v>214.60000000000002</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1">
+      <c r="R16" s="5"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="5"/>
         <v>8.0722891566265051</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <f>IFERROR(VLOOKUP(A16,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>14.6</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>21.4</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>18.8</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>-0.2</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>0</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>15.66666666666667</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>28.2</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>13.6</v>
       </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1">
         <f t="shared" si="6"/>
         <v>107.30000000000001</v>
       </c>
-      <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -4252,8 +4280,9 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY16" s="1"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -4282,69 +4311,69 @@
         <v>1030712385</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
         <v>400</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="3"/>
         <v>33.4</v>
       </c>
-      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1">
+      <c r="R17" s="5"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
         <f t="shared" si="4"/>
         <v>25.538922155688624</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="5"/>
         <v>25.538922155688624</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <f>IFERROR(VLOOKUP(A17,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>25</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>37.4</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>31</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>90.6</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>43.2</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>50.75</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>80.166666666666671</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>11.6</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>72.2</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>57.2</v>
       </c>
-      <c r="AE17" s="17" t="s">
+      <c r="AF17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -4362,8 +4391,9 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY17" s="1"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -4386,67 +4416,67 @@
         <v>1030709904</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="19">
+      <c r="R18" s="5"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="19">
+      <c r="U18" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <f>IFERROR(VLOOKUP(A18,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-1.2</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>-3.6</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>6.8</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>11.6</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>0.6</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>4.5</v>
       </c>
       <c r="AA18" s="1">
         <v>4.5</v>
       </c>
       <c r="AB18" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AC18" s="1">
         <v>5.2</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>8.6</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AE18" s="1">
         <v>3</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -4464,8 +4494,9 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY18" s="1"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -4492,70 +4523,70 @@
         <v>1030633904</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1">
+      <c r="R19" s="5"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <f>IFERROR(VLOOKUP(A19,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>5.8</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>11</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>1.8</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>22.8</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>11</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>14.75</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>14.66666666666667</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>15.4</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>20.6</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>23.6</v>
       </c>
-      <c r="AE19" s="17" t="s">
+      <c r="AF19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -4573,8 +4604,9 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY19" s="1"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -4603,67 +4635,67 @@
         <v>1030686740</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <f t="shared" si="3"/>
         <v>31.4</v>
       </c>
-      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1">
+      <c r="R20" s="5"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
         <f t="shared" si="4"/>
         <v>26.656050955414013</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <f t="shared" si="5"/>
         <v>26.656050955414013</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <f>IFERROR(VLOOKUP(A20,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>25.6</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>34</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>25.6</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>62.6</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>44.4</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>58.5</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>61.833333333333343</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>43</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>49.6</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>52.2</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AF20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -4681,8 +4713,9 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY20" s="1"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4709,70 +4742,70 @@
         <v>1030686857</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
         <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <f t="shared" si="7"/>
         <v>49.400000000000034</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
+      <c r="R21" s="5"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <f t="shared" si="5"/>
         <v>20.625</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <f>IFERROR(VLOOKUP(A21,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>15.8</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>22.2</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>14.4</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>39</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>26</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>29.75</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>33.833333333333343</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>25</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>24</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>44.6</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AF21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <f t="shared" si="6"/>
         <v>14.820000000000009</v>
       </c>
-      <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -4790,8 +4823,9 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY21" s="1"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -4818,67 +4852,67 @@
         <v>1030654104</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
         <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1">
+      <c r="R22" s="5"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
         <f t="shared" si="4"/>
         <v>68.333333333333329</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <f t="shared" si="5"/>
         <v>68.333333333333329</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <f>IFERROR(VLOOKUP(A22,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>9.4</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>7.8</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>6.6</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>19</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>9.4</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>11.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>17.333333333333329</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>14</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>7.4</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>25</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AF22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -4896,8 +4930,9 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY22" s="1"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -4924,67 +4959,67 @@
         <v>1030686241</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
+      <c r="R23" s="5"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
         <f t="shared" si="4"/>
         <v>43.392857142857146</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <f t="shared" si="5"/>
         <v>43.392857142857146</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <f>IFERROR(VLOOKUP(A23,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>2.8</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>8.4</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>11</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>9</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>1.8</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>0.5</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>19.5</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
       </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
       <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
         <v>0.6</v>
       </c>
-      <c r="AE23" s="20" t="s">
+      <c r="AF23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -5002,8 +5037,9 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY23" s="1"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -5024,67 +5060,67 @@
         <v>1030650028</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="19" t="e">
+      <c r="R24" s="5"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="19" t="e">
+      <c r="U24" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <f>IFERROR(VLOOKUP(A24,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-0.4</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>7.6</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>20.6</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>14.2</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>17.25</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>15.33333333333333</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>10.6</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>14.4</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AE24" s="1">
         <v>27.6</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -5102,8 +5138,9 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY24" s="1"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -5130,68 +5167,68 @@
         <v>1030657419</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <f t="shared" si="7"/>
         <v>89.4</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1">
+      <c r="R25" s="5"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <f t="shared" si="5"/>
         <v>9.8529411764705888</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <f>IFERROR(VLOOKUP(A25,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>6.2</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>3</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>5</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>16.8</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>10.6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>13.25</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>16.666666666666671</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>8.4</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>12.8</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AE25" s="1">
         <v>9.6</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1">
         <f t="shared" si="6"/>
         <v>26.82</v>
       </c>
-      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -5209,8 +5246,9 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY25" s="1"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -5233,67 +5271,67 @@
         <v>1030657628</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
-      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="19">
+      <c r="R26" s="5"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="19">
+      <c r="U26" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <f>IFERROR(VLOOKUP(A26,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-0.8</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>3.2</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>15.8</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>12</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>13.75</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>11.66666666666667</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>5.4</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AE26" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -5311,8 +5349,9 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY26" s="1"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -5339,67 +5378,67 @@
         <v>1030679319</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
         <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1">
+      <c r="R27" s="5"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
         <f t="shared" si="4"/>
         <v>27.682926829268297</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <f t="shared" si="5"/>
         <v>27.682926829268297</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <f>IFERROR(VLOOKUP(A27,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>9.6</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>11</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>19.8</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>12</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>9.5</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>19.666666666666671</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>4.8</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>1.2</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AF27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AG27" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -5417,8 +5456,9 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY27" s="1"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -5445,67 +5485,67 @@
         <v>1030638204</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
         <f t="shared" si="3"/>
         <v>17.8</v>
       </c>
-      <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1">
+      <c r="R28" s="5"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
         <f t="shared" si="4"/>
         <v>57.977528089887635</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <f t="shared" si="5"/>
         <v>57.977528089887635</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <f>IFERROR(VLOOKUP(A28,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>22.8</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>20.2</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>27.6</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>28.8</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>36.5</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>54.666666666666657</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>31</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>52.8</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>51.2</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AF28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -5523,8 +5563,9 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY28" s="1"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -5551,69 +5592,69 @@
         <v>1030670844</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
         <v>250</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
-      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1">
+      <c r="R29" s="5"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1">
         <f t="shared" si="4"/>
         <v>46.92307692307692</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <f t="shared" si="5"/>
         <v>46.92307692307692</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <f>IFERROR(VLOOKUP(A29,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>11.4</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>21.6</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>12.8</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>27.4</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>13.8</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>19.25</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>24</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>22.8</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>16</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AE29" s="1">
         <v>21.8</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AF29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AG29" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -5631,8 +5672,9 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY29" s="1"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,57 +5701,55 @@
         <v>1030228316</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>25.881</v>
       </c>
-      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
         <v>70</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <f t="shared" si="3"/>
         <v>5.1761999999999997</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <f t="shared" si="7"/>
         <v>47.769599999999997</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1">
+      <c r="R30" s="5"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <f t="shared" si="5"/>
         <v>13.771299408832736</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <f>IFERROR(VLOOKUP(A30,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>2.1848000000000001</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>0.97019999999999995</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>1.4214</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>6.2067999999999994</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
       </c>
       <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
         <v>11.6715</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
@@ -5717,12 +5757,14 @@
       <c r="AD30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1">
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1">
         <f t="shared" si="6"/>
         <v>47.769599999999997</v>
       </c>
-      <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -5740,8 +5782,9 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY30" s="1"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -5768,70 +5811,70 @@
         <v>1030234120</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
         <v>400</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <f t="shared" si="3"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <f t="shared" si="7"/>
         <v>304.39999999999998</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
+      <c r="R31" s="5"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <f t="shared" si="5"/>
         <v>13.994082840236688</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <f>IFERROR(VLOOKUP(A31,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>11</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>28.8</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>1.8</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>28</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>29</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>17</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>65.833333333333329</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>15</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <v>80</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AE31" s="1">
         <v>0.2</v>
       </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1">
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1">
         <f t="shared" si="6"/>
         <v>121.75999999999999</v>
       </c>
-      <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -5849,8 +5892,9 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY31" s="1"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -5877,57 +5921,55 @@
         <v>1030228620</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
         <v>260</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1">
+      <c r="R32" s="5"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="5"/>
         <v>15.764705882352942</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <f>IFERROR(VLOOKUP(A32,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>11</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>3.2</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>4.8</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>33.4</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
       </c>
       <c r="Z32" s="1">
         <v>0</v>
       </c>
       <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
         <v>26.666666666666671</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
@@ -5935,12 +5977,14 @@
       <c r="AD32" s="1">
         <v>0</v>
       </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1">
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1">
         <f t="shared" si="6"/>
         <v>55.35</v>
       </c>
-      <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -5958,8 +6002,9 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY32" s="1"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -5986,57 +6031,55 @@
         <v>1030212603</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
         <v>280</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <f t="shared" si="7"/>
         <v>414</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1">
+      <c r="R33" s="5"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="5"/>
         <v>9.6451612903225801</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <f>IFERROR(VLOOKUP(A33,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>13</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>0</v>
       </c>
-      <c r="W33" s="1">
+      <c r="X33" s="1">
         <v>-0.8</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Y33" s="1">
         <v>15</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>-0.2</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AA33" s="1">
         <v>0</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>26.666666666666671</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0</v>
       </c>
       <c r="AC33" s="1">
         <v>0</v>
@@ -6044,12 +6087,14 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1">
         <f t="shared" si="6"/>
         <v>186.3</v>
       </c>
-      <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -6067,8 +6112,9 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY33" s="1"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>71</v>
       </c>
@@ -6095,37 +6141,35 @@
         <v>72</v>
       </c>
       <c r="J34" s="13"/>
-      <c r="K34" s="13">
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
         <f t="shared" si="2"/>
         <v>-3.5960000000000001</v>
       </c>
-      <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="13">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13">
         <f t="shared" si="3"/>
         <v>-0.71920000000000006</v>
       </c>
-      <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13">
+      <c r="R34" s="15"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13">
         <f t="shared" si="4"/>
         <v>-4.3937708565072304</v>
       </c>
-      <c r="T34" s="13">
+      <c r="U34" s="13">
         <f t="shared" si="5"/>
         <v>-4.3937708565072304</v>
       </c>
-      <c r="U34" s="13">
+      <c r="V34" s="13">
         <f>IFERROR(VLOOKUP(A34,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>-0.7198</v>
       </c>
-      <c r="V34" s="13">
+      <c r="W34" s="13">
         <v>20.583600000000001</v>
-      </c>
-      <c r="W34" s="13">
-        <v>0</v>
       </c>
       <c r="X34" s="13">
         <v>0</v>
@@ -6148,9 +6192,11 @@
       <c r="AD34" s="13">
         <v>0</v>
       </c>
-      <c r="AE34" s="13"/>
+      <c r="AE34" s="13">
+        <v>0</v>
+      </c>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="1"/>
+      <c r="AG34" s="13"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -6168,8 +6214,9 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY34" s="1"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>73</v>
       </c>
@@ -6194,37 +6241,35 @@
         <v>72</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="K35" s="13">
+      <c r="K35" s="13"/>
+      <c r="L35" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="13">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13" t="e">
+      <c r="R35" s="15"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="13" t="e">
+      <c r="U35" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U35" s="13">
+      <c r="V35" s="13">
         <f>IFERROR(VLOOKUP(A35,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0.96920000000000006</v>
       </c>
-      <c r="V35" s="13">
+      <c r="W35" s="13">
         <v>13.605600000000001</v>
-      </c>
-      <c r="W35" s="13">
-        <v>0</v>
       </c>
       <c r="X35" s="13">
         <v>0</v>
@@ -6247,9 +6292,11 @@
       <c r="AD35" s="13">
         <v>0</v>
       </c>
-      <c r="AE35" s="13"/>
+      <c r="AE35" s="13">
+        <v>0</v>
+      </c>
       <c r="AF35" s="13"/>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="13"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -6267,8 +6314,9 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY35" s="1"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
@@ -6295,37 +6343,35 @@
         <v>72</v>
       </c>
       <c r="J36" s="13"/>
-      <c r="K36" s="13">
+      <c r="K36" s="13"/>
+      <c r="L36" s="13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="13">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13">
+      <c r="R36" s="15"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="T36" s="13">
+      <c r="U36" s="13">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="U36" s="13">
+      <c r="V36" s="13">
         <f>IFERROR(VLOOKUP(A36,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="V36" s="13">
+      <c r="W36" s="13">
         <v>12.4</v>
-      </c>
-      <c r="W36" s="13">
-        <v>0</v>
       </c>
       <c r="X36" s="13">
         <v>0</v>
@@ -6348,9 +6394,11 @@
       <c r="AD36" s="13">
         <v>0</v>
       </c>
-      <c r="AE36" s="13"/>
+      <c r="AE36" s="13">
+        <v>0</v>
+      </c>
       <c r="AF36" s="13"/>
-      <c r="AG36" s="1"/>
+      <c r="AG36" s="13"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -6368,8 +6416,9 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY36" s="1"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>75</v>
       </c>
@@ -6394,37 +6443,35 @@
         <v>72</v>
       </c>
       <c r="J37" s="13"/>
-      <c r="K37" s="13">
+      <c r="K37" s="13"/>
+      <c r="L37" s="13">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="13">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13">
+      <c r="R37" s="15"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13">
         <f t="shared" si="4"/>
         <v>7.7142857142857144</v>
       </c>
-      <c r="T37" s="13">
+      <c r="U37" s="13">
         <f t="shared" si="5"/>
         <v>7.7142857142857144</v>
       </c>
-      <c r="U37" s="13">
+      <c r="V37" s="13">
         <f>IFERROR(VLOOKUP(A37,[1]TDSheet!$A:$G,3,0)/5,0)</f>
         <v>0.4</v>
       </c>
-      <c r="V37" s="13">
+      <c r="W37" s="13">
         <v>7.4</v>
-      </c>
-      <c r="W37" s="13">
-        <v>0</v>
       </c>
       <c r="X37" s="13">
         <v>0</v>
@@ -6447,9 +6494,11 @@
       <c r="AD37" s="13">
         <v>0</v>
       </c>
-      <c r="AE37" s="13"/>
+      <c r="AE37" s="13">
+        <v>0</v>
+      </c>
       <c r="AF37" s="13"/>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="13"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -6467,8 +6516,9 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY37" s="1"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6519,8 +6569,9 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY38" s="1"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6571,8 +6622,9 @@
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY39" s="1"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6623,8 +6675,9 @@
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY40" s="1"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6675,8 +6728,9 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY41" s="1"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6727,8 +6781,9 @@
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY42" s="1"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6779,8 +6834,9 @@
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY43" s="1"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6831,8 +6887,9 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY44" s="1"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6883,8 +6940,9 @@
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY45" s="1"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6935,8 +6993,9 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY46" s="1"/>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6987,8 +7046,9 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY47" s="1"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7039,8 +7099,9 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY48" s="1"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -7091,8 +7152,9 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY49" s="1"/>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -7143,8 +7205,9 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY50" s="1"/>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -7195,8 +7258,9 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY51" s="1"/>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7247,8 +7311,9 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY52" s="1"/>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -7299,8 +7364,9 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY53" s="1"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -7351,8 +7417,9 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY54" s="1"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7403,8 +7470,9 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY55" s="1"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7455,8 +7523,9 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY56" s="1"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7507,8 +7576,9 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY57" s="1"/>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -7559,8 +7629,9 @@
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY58" s="1"/>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -7611,8 +7682,9 @@
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY59" s="1"/>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7663,8 +7735,9 @@
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY60" s="1"/>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7715,8 +7788,9 @@
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY61" s="1"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -7767,8 +7841,9 @@
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY62" s="1"/>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -7819,8 +7894,9 @@
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY63" s="1"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7871,8 +7947,9 @@
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY64" s="1"/>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -7923,8 +8000,9 @@
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
-    </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY65" s="1"/>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -7975,8 +8053,9 @@
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY66" s="1"/>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8027,8 +8106,9 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY67" s="1"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8079,8 +8159,9 @@
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY68" s="1"/>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8131,8 +8212,9 @@
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
-    </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY69" s="1"/>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8183,8 +8265,9 @@
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY70" s="1"/>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -8235,8 +8318,9 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY71" s="1"/>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8287,8 +8371,9 @@
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY72" s="1"/>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -8339,8 +8424,9 @@
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY73" s="1"/>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -8391,8 +8477,9 @@
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
-    </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY74" s="1"/>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8443,8 +8530,9 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
-    </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY75" s="1"/>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8495,8 +8583,9 @@
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY76" s="1"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8547,8 +8636,9 @@
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY77" s="1"/>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8599,8 +8689,9 @@
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY78" s="1"/>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8651,8 +8742,9 @@
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY79" s="1"/>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8703,8 +8795,9 @@
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
-    </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY80" s="1"/>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8755,8 +8848,9 @@
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
-    </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY81" s="1"/>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8807,8 +8901,9 @@
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
-    </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY82" s="1"/>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8859,8 +8954,9 @@
       <c r="AV83" s="1"/>
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
-    </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY83" s="1"/>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8911,8 +9007,9 @@
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
-    </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY84" s="1"/>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8963,8 +9060,9 @@
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
-    </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY85" s="1"/>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9015,8 +9113,9 @@
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
-    </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY86" s="1"/>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9067,8 +9166,9 @@
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
-    </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY87" s="1"/>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9119,8 +9219,9 @@
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
-    </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY88" s="1"/>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9171,8 +9272,9 @@
       <c r="AV89" s="1"/>
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
-    </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY89" s="1"/>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9223,8 +9325,9 @@
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
-    </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY90" s="1"/>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9275,8 +9378,9 @@
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
-    </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY91" s="1"/>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9327,8 +9431,9 @@
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
-    </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY92" s="1"/>
+    </row>
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9379,8 +9484,9 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
-    </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY93" s="1"/>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9431,8 +9537,9 @@
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
-    </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY94" s="1"/>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9483,8 +9590,9 @@
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
-    </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY95" s="1"/>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9535,8 +9643,9 @@
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
-    </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY96" s="1"/>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9587,8 +9696,9 @@
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
-    </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY97" s="1"/>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9639,8 +9749,9 @@
       <c r="AV98" s="1"/>
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
-    </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY98" s="1"/>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9691,8 +9802,9 @@
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
-    </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY99" s="1"/>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9743,8 +9855,9 @@
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
-    </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY100" s="1"/>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9795,8 +9908,9 @@
       <c r="AV101" s="1"/>
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
-    </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY101" s="1"/>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9847,8 +9961,9 @@
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
-    </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY102" s="1"/>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9899,8 +10014,9 @@
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
-    </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY103" s="1"/>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9951,8 +10067,9 @@
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
-    </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY104" s="1"/>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -10003,8 +10120,9 @@
       <c r="AV105" s="1"/>
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
-    </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY105" s="1"/>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -10055,8 +10173,9 @@
       <c r="AV106" s="1"/>
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
-    </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY106" s="1"/>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -10107,8 +10226,9 @@
       <c r="AV107" s="1"/>
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
-    </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY107" s="1"/>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -10159,8 +10279,9 @@
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
-    </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY108" s="1"/>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10211,8 +10332,9 @@
       <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
-    </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY109" s="1"/>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10263,8 +10385,9 @@
       <c r="AV110" s="1"/>
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
-    </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY110" s="1"/>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10315,8 +10438,9 @@
       <c r="AV111" s="1"/>
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
-    </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY111" s="1"/>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10367,8 +10491,9 @@
       <c r="AV112" s="1"/>
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
-    </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY112" s="1"/>
+    </row>
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10419,8 +10544,9 @@
       <c r="AV113" s="1"/>
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
-    </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY113" s="1"/>
+    </row>
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10471,8 +10597,9 @@
       <c r="AV114" s="1"/>
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
-    </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY114" s="1"/>
+    </row>
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10523,8 +10650,9 @@
       <c r="AV115" s="1"/>
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
-    </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY115" s="1"/>
+    </row>
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10575,8 +10703,9 @@
       <c r="AV116" s="1"/>
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
-    </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY116" s="1"/>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10627,8 +10756,9 @@
       <c r="AV117" s="1"/>
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
-    </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY117" s="1"/>
+    </row>
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10679,8 +10809,9 @@
       <c r="AV118" s="1"/>
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
-    </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY118" s="1"/>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10731,8 +10862,9 @@
       <c r="AV119" s="1"/>
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
-    </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY119" s="1"/>
+    </row>
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10783,8 +10915,9 @@
       <c r="AV120" s="1"/>
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
-    </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY120" s="1"/>
+    </row>
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -10835,8 +10968,9 @@
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
-    </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY121" s="1"/>
+    </row>
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -10887,8 +11021,9 @@
       <c r="AV122" s="1"/>
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
-    </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY122" s="1"/>
+    </row>
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -10939,8 +11074,9 @@
       <c r="AV123" s="1"/>
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
-    </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY123" s="1"/>
+    </row>
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -10991,8 +11127,9 @@
       <c r="AV124" s="1"/>
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
-    </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY124" s="1"/>
+    </row>
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -11043,8 +11180,9 @@
       <c r="AV125" s="1"/>
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
-    </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY125" s="1"/>
+    </row>
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -11095,8 +11233,9 @@
       <c r="AV126" s="1"/>
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
-    </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY126" s="1"/>
+    </row>
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -11147,8 +11286,9 @@
       <c r="AV127" s="1"/>
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
-    </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY127" s="1"/>
+    </row>
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11199,8 +11339,9 @@
       <c r="AV128" s="1"/>
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
-    </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY128" s="1"/>
+    </row>
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11251,8 +11392,9 @@
       <c r="AV129" s="1"/>
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
-    </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY129" s="1"/>
+    </row>
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11303,8 +11445,9 @@
       <c r="AV130" s="1"/>
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
-    </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY130" s="1"/>
+    </row>
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11355,8 +11498,9 @@
       <c r="AV131" s="1"/>
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
-    </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY131" s="1"/>
+    </row>
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11407,8 +11551,9 @@
       <c r="AV132" s="1"/>
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
-    </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY132" s="1"/>
+    </row>
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -11459,8 +11604,9 @@
       <c r="AV133" s="1"/>
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
-    </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY133" s="1"/>
+    </row>
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -11511,8 +11657,9 @@
       <c r="AV134" s="1"/>
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
-    </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY134" s="1"/>
+    </row>
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -11563,8 +11710,9 @@
       <c r="AV135" s="1"/>
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
-    </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY135" s="1"/>
+    </row>
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -11615,8 +11763,9 @@
       <c r="AV136" s="1"/>
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
-    </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY136" s="1"/>
+    </row>
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -11667,8 +11816,9 @@
       <c r="AV137" s="1"/>
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
-    </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY137" s="1"/>
+    </row>
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -11719,8 +11869,9 @@
       <c r="AV138" s="1"/>
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
-    </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY138" s="1"/>
+    </row>
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -11771,8 +11922,9 @@
       <c r="AV139" s="1"/>
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
-    </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY139" s="1"/>
+    </row>
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -11823,8 +11975,9 @@
       <c r="AV140" s="1"/>
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
-    </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY140" s="1"/>
+    </row>
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -11875,8 +12028,9 @@
       <c r="AV141" s="1"/>
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
-    </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY141" s="1"/>
+    </row>
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -11927,8 +12081,9 @@
       <c r="AV142" s="1"/>
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
-    </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY142" s="1"/>
+    </row>
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -11979,8 +12134,9 @@
       <c r="AV143" s="1"/>
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
-    </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY143" s="1"/>
+    </row>
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -12031,8 +12187,9 @@
       <c r="AV144" s="1"/>
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
-    </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY144" s="1"/>
+    </row>
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -12083,8 +12240,9 @@
       <c r="AV145" s="1"/>
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
-    </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY145" s="1"/>
+    </row>
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -12135,8 +12293,9 @@
       <c r="AV146" s="1"/>
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
-    </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY146" s="1"/>
+    </row>
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -12187,8 +12346,9 @@
       <c r="AV147" s="1"/>
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
-    </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY147" s="1"/>
+    </row>
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -12239,8 +12399,9 @@
       <c r="AV148" s="1"/>
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
-    </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY148" s="1"/>
+    </row>
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -12291,8 +12452,9 @@
       <c r="AV149" s="1"/>
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
-    </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY149" s="1"/>
+    </row>
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -12343,8 +12505,9 @@
       <c r="AV150" s="1"/>
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
-    </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY150" s="1"/>
+    </row>
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -12395,8 +12558,9 @@
       <c r="AV151" s="1"/>
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
-    </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY151" s="1"/>
+    </row>
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -12447,8 +12611,9 @@
       <c r="AV152" s="1"/>
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
-    </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY152" s="1"/>
+    </row>
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -12499,8 +12664,9 @@
       <c r="AV153" s="1"/>
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
-    </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY153" s="1"/>
+    </row>
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -12551,8 +12717,9 @@
       <c r="AV154" s="1"/>
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
-    </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY154" s="1"/>
+    </row>
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -12603,8 +12770,9 @@
       <c r="AV155" s="1"/>
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
-    </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY155" s="1"/>
+    </row>
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -12655,8 +12823,9 @@
       <c r="AV156" s="1"/>
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
-    </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY156" s="1"/>
+    </row>
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -12707,8 +12876,9 @@
       <c r="AV157" s="1"/>
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
-    </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY157" s="1"/>
+    </row>
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -12759,8 +12929,9 @@
       <c r="AV158" s="1"/>
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
-    </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY158" s="1"/>
+    </row>
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -12811,8 +12982,9 @@
       <c r="AV159" s="1"/>
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
-    </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY159" s="1"/>
+    </row>
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -12863,8 +13035,9 @@
       <c r="AV160" s="1"/>
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
-    </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY160" s="1"/>
+    </row>
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -12915,8 +13088,9 @@
       <c r="AV161" s="1"/>
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
-    </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY161" s="1"/>
+    </row>
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -12967,8 +13141,9 @@
       <c r="AV162" s="1"/>
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
-    </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY162" s="1"/>
+    </row>
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -13019,8 +13194,9 @@
       <c r="AV163" s="1"/>
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
-    </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY163" s="1"/>
+    </row>
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -13071,8 +13247,9 @@
       <c r="AV164" s="1"/>
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
-    </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY164" s="1"/>
+    </row>
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -13123,8 +13300,9 @@
       <c r="AV165" s="1"/>
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
-    </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY165" s="1"/>
+    </row>
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -13175,8 +13353,9 @@
       <c r="AV166" s="1"/>
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
-    </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY166" s="1"/>
+    </row>
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -13227,8 +13406,9 @@
       <c r="AV167" s="1"/>
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
-    </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY167" s="1"/>
+    </row>
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -13279,8 +13459,9 @@
       <c r="AV168" s="1"/>
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
-    </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY168" s="1"/>
+    </row>
+    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -13331,8 +13512,9 @@
       <c r="AV169" s="1"/>
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
-    </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY169" s="1"/>
+    </row>
+    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -13383,8 +13565,9 @@
       <c r="AV170" s="1"/>
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
-    </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY170" s="1"/>
+    </row>
+    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -13435,8 +13618,9 @@
       <c r="AV171" s="1"/>
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
-    </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY171" s="1"/>
+    </row>
+    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -13487,8 +13671,9 @@
       <c r="AV172" s="1"/>
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
-    </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY172" s="1"/>
+    </row>
+    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -13539,8 +13724,9 @@
       <c r="AV173" s="1"/>
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
-    </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY173" s="1"/>
+    </row>
+    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -13591,8 +13777,9 @@
       <c r="AV174" s="1"/>
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
-    </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY174" s="1"/>
+    </row>
+    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -13643,8 +13830,9 @@
       <c r="AV175" s="1"/>
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
-    </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY175" s="1"/>
+    </row>
+    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -13695,8 +13883,9 @@
       <c r="AV176" s="1"/>
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
-    </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY176" s="1"/>
+    </row>
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -13747,8 +13936,9 @@
       <c r="AV177" s="1"/>
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
-    </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY177" s="1"/>
+    </row>
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -13799,8 +13989,9 @@
       <c r="AV178" s="1"/>
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
-    </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY178" s="1"/>
+    </row>
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -13851,8 +14042,9 @@
       <c r="AV179" s="1"/>
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
-    </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY179" s="1"/>
+    </row>
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -13903,8 +14095,9 @@
       <c r="AV180" s="1"/>
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
-    </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY180" s="1"/>
+    </row>
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -13955,8 +14148,9 @@
       <c r="AV181" s="1"/>
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
-    </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY181" s="1"/>
+    </row>
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -14007,8 +14201,9 @@
       <c r="AV182" s="1"/>
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
-    </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY182" s="1"/>
+    </row>
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -14059,8 +14254,9 @@
       <c r="AV183" s="1"/>
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
-    </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY183" s="1"/>
+    </row>
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -14111,8 +14307,9 @@
       <c r="AV184" s="1"/>
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
-    </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY184" s="1"/>
+    </row>
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -14163,8 +14360,9 @@
       <c r="AV185" s="1"/>
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
-    </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY185" s="1"/>
+    </row>
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -14215,8 +14413,9 @@
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
-    </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY186" s="1"/>
+    </row>
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -14267,8 +14466,9 @@
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
-    </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY187" s="1"/>
+    </row>
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -14319,8 +14519,9 @@
       <c r="AV188" s="1"/>
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
-    </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY188" s="1"/>
+    </row>
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -14371,8 +14572,9 @@
       <c r="AV189" s="1"/>
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
-    </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY189" s="1"/>
+    </row>
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -14423,8 +14625,9 @@
       <c r="AV190" s="1"/>
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
-    </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY190" s="1"/>
+    </row>
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -14475,8 +14678,9 @@
       <c r="AV191" s="1"/>
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
-    </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY191" s="1"/>
+    </row>
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -14527,8 +14731,9 @@
       <c r="AV192" s="1"/>
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
-    </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY192" s="1"/>
+    </row>
+    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -14579,8 +14784,9 @@
       <c r="AV193" s="1"/>
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
-    </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY193" s="1"/>
+    </row>
+    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -14631,8 +14837,9 @@
       <c r="AV194" s="1"/>
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
-    </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY194" s="1"/>
+    </row>
+    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -14683,8 +14890,9 @@
       <c r="AV195" s="1"/>
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
-    </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY195" s="1"/>
+    </row>
+    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -14735,8 +14943,9 @@
       <c r="AV196" s="1"/>
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
-    </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY196" s="1"/>
+    </row>
+    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -14787,8 +14996,9 @@
       <c r="AV197" s="1"/>
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
-    </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY197" s="1"/>
+    </row>
+    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -14839,8 +15049,9 @@
       <c r="AV198" s="1"/>
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
-    </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY198" s="1"/>
+    </row>
+    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -14891,8 +15102,9 @@
       <c r="AV199" s="1"/>
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
-    </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY199" s="1"/>
+    </row>
+    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -14943,8 +15155,9 @@
       <c r="AV200" s="1"/>
       <c r="AW200" s="1"/>
       <c r="AX200" s="1"/>
-    </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY200" s="1"/>
+    </row>
+    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -14995,8 +15208,9 @@
       <c r="AV201" s="1"/>
       <c r="AW201" s="1"/>
       <c r="AX201" s="1"/>
-    </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY201" s="1"/>
+    </row>
+    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -15047,8 +15261,9 @@
       <c r="AV202" s="1"/>
       <c r="AW202" s="1"/>
       <c r="AX202" s="1"/>
-    </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY202" s="1"/>
+    </row>
+    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -15099,8 +15314,9 @@
       <c r="AV203" s="1"/>
       <c r="AW203" s="1"/>
       <c r="AX203" s="1"/>
-    </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY203" s="1"/>
+    </row>
+    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -15151,8 +15367,9 @@
       <c r="AV204" s="1"/>
       <c r="AW204" s="1"/>
       <c r="AX204" s="1"/>
-    </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY204" s="1"/>
+    </row>
+    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -15203,8 +15420,9 @@
       <c r="AV205" s="1"/>
       <c r="AW205" s="1"/>
       <c r="AX205" s="1"/>
-    </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY205" s="1"/>
+    </row>
+    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -15255,8 +15473,9 @@
       <c r="AV206" s="1"/>
       <c r="AW206" s="1"/>
       <c r="AX206" s="1"/>
-    </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY206" s="1"/>
+    </row>
+    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -15307,8 +15526,9 @@
       <c r="AV207" s="1"/>
       <c r="AW207" s="1"/>
       <c r="AX207" s="1"/>
-    </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY207" s="1"/>
+    </row>
+    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -15359,8 +15579,9 @@
       <c r="AV208" s="1"/>
       <c r="AW208" s="1"/>
       <c r="AX208" s="1"/>
-    </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY208" s="1"/>
+    </row>
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -15411,8 +15632,9 @@
       <c r="AV209" s="1"/>
       <c r="AW209" s="1"/>
       <c r="AX209" s="1"/>
-    </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY209" s="1"/>
+    </row>
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -15463,8 +15685,9 @@
       <c r="AV210" s="1"/>
       <c r="AW210" s="1"/>
       <c r="AX210" s="1"/>
-    </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY210" s="1"/>
+    </row>
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -15515,8 +15738,9 @@
       <c r="AV211" s="1"/>
       <c r="AW211" s="1"/>
       <c r="AX211" s="1"/>
-    </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY211" s="1"/>
+    </row>
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -15567,8 +15791,9 @@
       <c r="AV212" s="1"/>
       <c r="AW212" s="1"/>
       <c r="AX212" s="1"/>
-    </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY212" s="1"/>
+    </row>
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -15619,8 +15844,9 @@
       <c r="AV213" s="1"/>
       <c r="AW213" s="1"/>
       <c r="AX213" s="1"/>
-    </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY213" s="1"/>
+    </row>
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -15671,8 +15897,9 @@
       <c r="AV214" s="1"/>
       <c r="AW214" s="1"/>
       <c r="AX214" s="1"/>
-    </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY214" s="1"/>
+    </row>
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -15723,8 +15950,9 @@
       <c r="AV215" s="1"/>
       <c r="AW215" s="1"/>
       <c r="AX215" s="1"/>
-    </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY215" s="1"/>
+    </row>
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -15775,8 +16003,9 @@
       <c r="AV216" s="1"/>
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
-    </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY216" s="1"/>
+    </row>
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -15827,8 +16056,9 @@
       <c r="AV217" s="1"/>
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
-    </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY217" s="1"/>
+    </row>
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -15879,8 +16109,9 @@
       <c r="AV218" s="1"/>
       <c r="AW218" s="1"/>
       <c r="AX218" s="1"/>
-    </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY218" s="1"/>
+    </row>
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -15931,8 +16162,9 @@
       <c r="AV219" s="1"/>
       <c r="AW219" s="1"/>
       <c r="AX219" s="1"/>
-    </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY219" s="1"/>
+    </row>
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -15983,8 +16215,9 @@
       <c r="AV220" s="1"/>
       <c r="AW220" s="1"/>
       <c r="AX220" s="1"/>
-    </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY220" s="1"/>
+    </row>
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -16035,8 +16268,9 @@
       <c r="AV221" s="1"/>
       <c r="AW221" s="1"/>
       <c r="AX221" s="1"/>
-    </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY221" s="1"/>
+    </row>
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -16087,8 +16321,9 @@
       <c r="AV222" s="1"/>
       <c r="AW222" s="1"/>
       <c r="AX222" s="1"/>
-    </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY222" s="1"/>
+    </row>
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -16139,8 +16374,9 @@
       <c r="AV223" s="1"/>
       <c r="AW223" s="1"/>
       <c r="AX223" s="1"/>
-    </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY223" s="1"/>
+    </row>
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -16191,8 +16427,9 @@
       <c r="AV224" s="1"/>
       <c r="AW224" s="1"/>
       <c r="AX224" s="1"/>
-    </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY224" s="1"/>
+    </row>
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -16243,8 +16480,9 @@
       <c r="AV225" s="1"/>
       <c r="AW225" s="1"/>
       <c r="AX225" s="1"/>
-    </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY225" s="1"/>
+    </row>
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -16295,8 +16533,9 @@
       <c r="AV226" s="1"/>
       <c r="AW226" s="1"/>
       <c r="AX226" s="1"/>
-    </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY226" s="1"/>
+    </row>
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -16347,8 +16586,9 @@
       <c r="AV227" s="1"/>
       <c r="AW227" s="1"/>
       <c r="AX227" s="1"/>
-    </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY227" s="1"/>
+    </row>
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -16399,8 +16639,9 @@
       <c r="AV228" s="1"/>
       <c r="AW228" s="1"/>
       <c r="AX228" s="1"/>
-    </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY228" s="1"/>
+    </row>
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -16451,8 +16692,9 @@
       <c r="AV229" s="1"/>
       <c r="AW229" s="1"/>
       <c r="AX229" s="1"/>
-    </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY229" s="1"/>
+    </row>
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -16503,8 +16745,9 @@
       <c r="AV230" s="1"/>
       <c r="AW230" s="1"/>
       <c r="AX230" s="1"/>
-    </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY230" s="1"/>
+    </row>
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -16555,8 +16798,9 @@
       <c r="AV231" s="1"/>
       <c r="AW231" s="1"/>
       <c r="AX231" s="1"/>
-    </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY231" s="1"/>
+    </row>
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -16607,8 +16851,9 @@
       <c r="AV232" s="1"/>
       <c r="AW232" s="1"/>
       <c r="AX232" s="1"/>
-    </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY232" s="1"/>
+    </row>
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -16659,8 +16904,9 @@
       <c r="AV233" s="1"/>
       <c r="AW233" s="1"/>
       <c r="AX233" s="1"/>
-    </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY233" s="1"/>
+    </row>
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -16711,8 +16957,9 @@
       <c r="AV234" s="1"/>
       <c r="AW234" s="1"/>
       <c r="AX234" s="1"/>
-    </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY234" s="1"/>
+    </row>
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -16763,8 +17010,9 @@
       <c r="AV235" s="1"/>
       <c r="AW235" s="1"/>
       <c r="AX235" s="1"/>
-    </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY235" s="1"/>
+    </row>
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -16815,8 +17063,9 @@
       <c r="AV236" s="1"/>
       <c r="AW236" s="1"/>
       <c r="AX236" s="1"/>
-    </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY236" s="1"/>
+    </row>
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -16867,8 +17116,9 @@
       <c r="AV237" s="1"/>
       <c r="AW237" s="1"/>
       <c r="AX237" s="1"/>
-    </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY237" s="1"/>
+    </row>
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -16919,8 +17169,9 @@
       <c r="AV238" s="1"/>
       <c r="AW238" s="1"/>
       <c r="AX238" s="1"/>
-    </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY238" s="1"/>
+    </row>
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -16971,8 +17222,9 @@
       <c r="AV239" s="1"/>
       <c r="AW239" s="1"/>
       <c r="AX239" s="1"/>
-    </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY239" s="1"/>
+    </row>
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -17023,8 +17275,9 @@
       <c r="AV240" s="1"/>
       <c r="AW240" s="1"/>
       <c r="AX240" s="1"/>
-    </row>
-    <row r="241" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY240" s="1"/>
+    </row>
+    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -17075,8 +17328,9 @@
       <c r="AV241" s="1"/>
       <c r="AW241" s="1"/>
       <c r="AX241" s="1"/>
-    </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY241" s="1"/>
+    </row>
+    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -17127,8 +17381,9 @@
       <c r="AV242" s="1"/>
       <c r="AW242" s="1"/>
       <c r="AX242" s="1"/>
-    </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY242" s="1"/>
+    </row>
+    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -17179,8 +17434,9 @@
       <c r="AV243" s="1"/>
       <c r="AW243" s="1"/>
       <c r="AX243" s="1"/>
-    </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY243" s="1"/>
+    </row>
+    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -17231,8 +17487,9 @@
       <c r="AV244" s="1"/>
       <c r="AW244" s="1"/>
       <c r="AX244" s="1"/>
-    </row>
-    <row r="245" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY244" s="1"/>
+    </row>
+    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -17283,8 +17540,9 @@
       <c r="AV245" s="1"/>
       <c r="AW245" s="1"/>
       <c r="AX245" s="1"/>
-    </row>
-    <row r="246" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY245" s="1"/>
+    </row>
+    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -17335,8 +17593,9 @@
       <c r="AV246" s="1"/>
       <c r="AW246" s="1"/>
       <c r="AX246" s="1"/>
-    </row>
-    <row r="247" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY246" s="1"/>
+    </row>
+    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -17387,8 +17646,9 @@
       <c r="AV247" s="1"/>
       <c r="AW247" s="1"/>
       <c r="AX247" s="1"/>
-    </row>
-    <row r="248" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY247" s="1"/>
+    </row>
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -17439,8 +17699,9 @@
       <c r="AV248" s="1"/>
       <c r="AW248" s="1"/>
       <c r="AX248" s="1"/>
-    </row>
-    <row r="249" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY248" s="1"/>
+    </row>
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -17491,8 +17752,9 @@
       <c r="AV249" s="1"/>
       <c r="AW249" s="1"/>
       <c r="AX249" s="1"/>
-    </row>
-    <row r="250" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY249" s="1"/>
+    </row>
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -17543,8 +17805,9 @@
       <c r="AV250" s="1"/>
       <c r="AW250" s="1"/>
       <c r="AX250" s="1"/>
-    </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY250" s="1"/>
+    </row>
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -17595,8 +17858,9 @@
       <c r="AV251" s="1"/>
       <c r="AW251" s="1"/>
       <c r="AX251" s="1"/>
-    </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY251" s="1"/>
+    </row>
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -17647,8 +17911,9 @@
       <c r="AV252" s="1"/>
       <c r="AW252" s="1"/>
       <c r="AX252" s="1"/>
-    </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY252" s="1"/>
+    </row>
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -17699,8 +17964,9 @@
       <c r="AV253" s="1"/>
       <c r="AW253" s="1"/>
       <c r="AX253" s="1"/>
-    </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY253" s="1"/>
+    </row>
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -17751,8 +18017,9 @@
       <c r="AV254" s="1"/>
       <c r="AW254" s="1"/>
       <c r="AX254" s="1"/>
-    </row>
-    <row r="255" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY254" s="1"/>
+    </row>
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -17803,8 +18070,9 @@
       <c r="AV255" s="1"/>
       <c r="AW255" s="1"/>
       <c r="AX255" s="1"/>
-    </row>
-    <row r="256" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY255" s="1"/>
+    </row>
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -17855,8 +18123,9 @@
       <c r="AV256" s="1"/>
       <c r="AW256" s="1"/>
       <c r="AX256" s="1"/>
-    </row>
-    <row r="257" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY256" s="1"/>
+    </row>
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -17907,8 +18176,9 @@
       <c r="AV257" s="1"/>
       <c r="AW257" s="1"/>
       <c r="AX257" s="1"/>
-    </row>
-    <row r="258" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY257" s="1"/>
+    </row>
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -17959,8 +18229,9 @@
       <c r="AV258" s="1"/>
       <c r="AW258" s="1"/>
       <c r="AX258" s="1"/>
-    </row>
-    <row r="259" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY258" s="1"/>
+    </row>
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -18011,8 +18282,9 @@
       <c r="AV259" s="1"/>
       <c r="AW259" s="1"/>
       <c r="AX259" s="1"/>
-    </row>
-    <row r="260" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY259" s="1"/>
+    </row>
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -18063,8 +18335,9 @@
       <c r="AV260" s="1"/>
       <c r="AW260" s="1"/>
       <c r="AX260" s="1"/>
-    </row>
-    <row r="261" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY260" s="1"/>
+    </row>
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -18115,8 +18388,9 @@
       <c r="AV261" s="1"/>
       <c r="AW261" s="1"/>
       <c r="AX261" s="1"/>
-    </row>
-    <row r="262" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY261" s="1"/>
+    </row>
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -18167,8 +18441,9 @@
       <c r="AV262" s="1"/>
       <c r="AW262" s="1"/>
       <c r="AX262" s="1"/>
-    </row>
-    <row r="263" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY262" s="1"/>
+    </row>
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -18219,8 +18494,9 @@
       <c r="AV263" s="1"/>
       <c r="AW263" s="1"/>
       <c r="AX263" s="1"/>
-    </row>
-    <row r="264" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY263" s="1"/>
+    </row>
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -18271,8 +18547,9 @@
       <c r="AV264" s="1"/>
       <c r="AW264" s="1"/>
       <c r="AX264" s="1"/>
-    </row>
-    <row r="265" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY264" s="1"/>
+    </row>
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -18323,8 +18600,9 @@
       <c r="AV265" s="1"/>
       <c r="AW265" s="1"/>
       <c r="AX265" s="1"/>
-    </row>
-    <row r="266" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY265" s="1"/>
+    </row>
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -18375,8 +18653,9 @@
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
       <c r="AX266" s="1"/>
-    </row>
-    <row r="267" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY266" s="1"/>
+    </row>
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -18427,8 +18706,9 @@
       <c r="AV267" s="1"/>
       <c r="AW267" s="1"/>
       <c r="AX267" s="1"/>
-    </row>
-    <row r="268" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY267" s="1"/>
+    </row>
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -18479,8 +18759,9 @@
       <c r="AV268" s="1"/>
       <c r="AW268" s="1"/>
       <c r="AX268" s="1"/>
-    </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY268" s="1"/>
+    </row>
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -18531,8 +18812,9 @@
       <c r="AV269" s="1"/>
       <c r="AW269" s="1"/>
       <c r="AX269" s="1"/>
-    </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY269" s="1"/>
+    </row>
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -18583,8 +18865,9 @@
       <c r="AV270" s="1"/>
       <c r="AW270" s="1"/>
       <c r="AX270" s="1"/>
-    </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY270" s="1"/>
+    </row>
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -18635,8 +18918,9 @@
       <c r="AV271" s="1"/>
       <c r="AW271" s="1"/>
       <c r="AX271" s="1"/>
-    </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY271" s="1"/>
+    </row>
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -18687,8 +18971,9 @@
       <c r="AV272" s="1"/>
       <c r="AW272" s="1"/>
       <c r="AX272" s="1"/>
-    </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY272" s="1"/>
+    </row>
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -18739,8 +19024,9 @@
       <c r="AV273" s="1"/>
       <c r="AW273" s="1"/>
       <c r="AX273" s="1"/>
-    </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY273" s="1"/>
+    </row>
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -18791,8 +19077,9 @@
       <c r="AV274" s="1"/>
       <c r="AW274" s="1"/>
       <c r="AX274" s="1"/>
-    </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY274" s="1"/>
+    </row>
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -18843,8 +19130,9 @@
       <c r="AV275" s="1"/>
       <c r="AW275" s="1"/>
       <c r="AX275" s="1"/>
-    </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY275" s="1"/>
+    </row>
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -18895,8 +19183,9 @@
       <c r="AV276" s="1"/>
       <c r="AW276" s="1"/>
       <c r="AX276" s="1"/>
-    </row>
-    <row r="277" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY276" s="1"/>
+    </row>
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -18947,8 +19236,9 @@
       <c r="AV277" s="1"/>
       <c r="AW277" s="1"/>
       <c r="AX277" s="1"/>
-    </row>
-    <row r="278" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY277" s="1"/>
+    </row>
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -18999,8 +19289,9 @@
       <c r="AV278" s="1"/>
       <c r="AW278" s="1"/>
       <c r="AX278" s="1"/>
-    </row>
-    <row r="279" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY278" s="1"/>
+    </row>
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -19051,8 +19342,9 @@
       <c r="AV279" s="1"/>
       <c r="AW279" s="1"/>
       <c r="AX279" s="1"/>
-    </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY279" s="1"/>
+    </row>
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -19103,8 +19395,9 @@
       <c r="AV280" s="1"/>
       <c r="AW280" s="1"/>
       <c r="AX280" s="1"/>
-    </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY280" s="1"/>
+    </row>
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -19155,8 +19448,9 @@
       <c r="AV281" s="1"/>
       <c r="AW281" s="1"/>
       <c r="AX281" s="1"/>
-    </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY281" s="1"/>
+    </row>
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -19207,8 +19501,9 @@
       <c r="AV282" s="1"/>
       <c r="AW282" s="1"/>
       <c r="AX282" s="1"/>
-    </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY282" s="1"/>
+    </row>
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -19259,8 +19554,9 @@
       <c r="AV283" s="1"/>
       <c r="AW283" s="1"/>
       <c r="AX283" s="1"/>
-    </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY283" s="1"/>
+    </row>
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -19311,8 +19607,9 @@
       <c r="AV284" s="1"/>
       <c r="AW284" s="1"/>
       <c r="AX284" s="1"/>
-    </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY284" s="1"/>
+    </row>
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -19363,8 +19660,9 @@
       <c r="AV285" s="1"/>
       <c r="AW285" s="1"/>
       <c r="AX285" s="1"/>
-    </row>
-    <row r="286" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY285" s="1"/>
+    </row>
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -19415,8 +19713,9 @@
       <c r="AV286" s="1"/>
       <c r="AW286" s="1"/>
       <c r="AX286" s="1"/>
-    </row>
-    <row r="287" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY286" s="1"/>
+    </row>
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -19467,8 +19766,9 @@
       <c r="AV287" s="1"/>
       <c r="AW287" s="1"/>
       <c r="AX287" s="1"/>
-    </row>
-    <row r="288" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY287" s="1"/>
+    </row>
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -19519,8 +19819,9 @@
       <c r="AV288" s="1"/>
       <c r="AW288" s="1"/>
       <c r="AX288" s="1"/>
-    </row>
-    <row r="289" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY288" s="1"/>
+    </row>
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -19571,8 +19872,9 @@
       <c r="AV289" s="1"/>
       <c r="AW289" s="1"/>
       <c r="AX289" s="1"/>
-    </row>
-    <row r="290" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY289" s="1"/>
+    </row>
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -19623,8 +19925,9 @@
       <c r="AV290" s="1"/>
       <c r="AW290" s="1"/>
       <c r="AX290" s="1"/>
-    </row>
-    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY290" s="1"/>
+    </row>
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -19675,8 +19978,9 @@
       <c r="AV291" s="1"/>
       <c r="AW291" s="1"/>
       <c r="AX291" s="1"/>
-    </row>
-    <row r="292" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY291" s="1"/>
+    </row>
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -19727,8 +20031,9 @@
       <c r="AV292" s="1"/>
       <c r="AW292" s="1"/>
       <c r="AX292" s="1"/>
-    </row>
-    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY292" s="1"/>
+    </row>
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -19779,8 +20084,9 @@
       <c r="AV293" s="1"/>
       <c r="AW293" s="1"/>
       <c r="AX293" s="1"/>
-    </row>
-    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY293" s="1"/>
+    </row>
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -19831,8 +20137,9 @@
       <c r="AV294" s="1"/>
       <c r="AW294" s="1"/>
       <c r="AX294" s="1"/>
-    </row>
-    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY294" s="1"/>
+    </row>
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -19883,8 +20190,9 @@
       <c r="AV295" s="1"/>
       <c r="AW295" s="1"/>
       <c r="AX295" s="1"/>
-    </row>
-    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY295" s="1"/>
+    </row>
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -19935,8 +20243,9 @@
       <c r="AV296" s="1"/>
       <c r="AW296" s="1"/>
       <c r="AX296" s="1"/>
-    </row>
-    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY296" s="1"/>
+    </row>
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -19987,8 +20296,9 @@
       <c r="AV297" s="1"/>
       <c r="AW297" s="1"/>
       <c r="AX297" s="1"/>
-    </row>
-    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY297" s="1"/>
+    </row>
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -20039,8 +20349,9 @@
       <c r="AV298" s="1"/>
       <c r="AW298" s="1"/>
       <c r="AX298" s="1"/>
-    </row>
-    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY298" s="1"/>
+    </row>
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -20091,8 +20402,9 @@
       <c r="AV299" s="1"/>
       <c r="AW299" s="1"/>
       <c r="AX299" s="1"/>
-    </row>
-    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY299" s="1"/>
+    </row>
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -20143,8 +20455,9 @@
       <c r="AV300" s="1"/>
       <c r="AW300" s="1"/>
       <c r="AX300" s="1"/>
-    </row>
-    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY300" s="1"/>
+    </row>
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -20195,8 +20508,9 @@
       <c r="AV301" s="1"/>
       <c r="AW301" s="1"/>
       <c r="AX301" s="1"/>
-    </row>
-    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY301" s="1"/>
+    </row>
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -20247,8 +20561,9 @@
       <c r="AV302" s="1"/>
       <c r="AW302" s="1"/>
       <c r="AX302" s="1"/>
-    </row>
-    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY302" s="1"/>
+    </row>
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -20299,8 +20614,9 @@
       <c r="AV303" s="1"/>
       <c r="AW303" s="1"/>
       <c r="AX303" s="1"/>
-    </row>
-    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY303" s="1"/>
+    </row>
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -20351,8 +20667,9 @@
       <c r="AV304" s="1"/>
       <c r="AW304" s="1"/>
       <c r="AX304" s="1"/>
-    </row>
-    <row r="305" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY304" s="1"/>
+    </row>
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -20403,8 +20720,9 @@
       <c r="AV305" s="1"/>
       <c r="AW305" s="1"/>
       <c r="AX305" s="1"/>
-    </row>
-    <row r="306" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY305" s="1"/>
+    </row>
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -20455,8 +20773,9 @@
       <c r="AV306" s="1"/>
       <c r="AW306" s="1"/>
       <c r="AX306" s="1"/>
-    </row>
-    <row r="307" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY306" s="1"/>
+    </row>
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -20507,8 +20826,9 @@
       <c r="AV307" s="1"/>
       <c r="AW307" s="1"/>
       <c r="AX307" s="1"/>
-    </row>
-    <row r="308" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY307" s="1"/>
+    </row>
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -20559,8 +20879,9 @@
       <c r="AV308" s="1"/>
       <c r="AW308" s="1"/>
       <c r="AX308" s="1"/>
-    </row>
-    <row r="309" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY308" s="1"/>
+    </row>
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -20611,8 +20932,9 @@
       <c r="AV309" s="1"/>
       <c r="AW309" s="1"/>
       <c r="AX309" s="1"/>
-    </row>
-    <row r="310" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY309" s="1"/>
+    </row>
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -20663,8 +20985,9 @@
       <c r="AV310" s="1"/>
       <c r="AW310" s="1"/>
       <c r="AX310" s="1"/>
-    </row>
-    <row r="311" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY310" s="1"/>
+    </row>
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -20715,8 +21038,9 @@
       <c r="AV311" s="1"/>
       <c r="AW311" s="1"/>
       <c r="AX311" s="1"/>
-    </row>
-    <row r="312" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY311" s="1"/>
+    </row>
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -20767,8 +21091,9 @@
       <c r="AV312" s="1"/>
       <c r="AW312" s="1"/>
       <c r="AX312" s="1"/>
-    </row>
-    <row r="313" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY312" s="1"/>
+    </row>
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -20819,8 +21144,9 @@
       <c r="AV313" s="1"/>
       <c r="AW313" s="1"/>
       <c r="AX313" s="1"/>
-    </row>
-    <row r="314" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY313" s="1"/>
+    </row>
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -20871,8 +21197,9 @@
       <c r="AV314" s="1"/>
       <c r="AW314" s="1"/>
       <c r="AX314" s="1"/>
-    </row>
-    <row r="315" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY314" s="1"/>
+    </row>
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -20923,8 +21250,9 @@
       <c r="AV315" s="1"/>
       <c r="AW315" s="1"/>
       <c r="AX315" s="1"/>
-    </row>
-    <row r="316" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY315" s="1"/>
+    </row>
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -20975,8 +21303,9 @@
       <c r="AV316" s="1"/>
       <c r="AW316" s="1"/>
       <c r="AX316" s="1"/>
-    </row>
-    <row r="317" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY316" s="1"/>
+    </row>
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -21027,8 +21356,9 @@
       <c r="AV317" s="1"/>
       <c r="AW317" s="1"/>
       <c r="AX317" s="1"/>
-    </row>
-    <row r="318" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY317" s="1"/>
+    </row>
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -21079,8 +21409,9 @@
       <c r="AV318" s="1"/>
       <c r="AW318" s="1"/>
       <c r="AX318" s="1"/>
-    </row>
-    <row r="319" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY318" s="1"/>
+    </row>
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -21131,8 +21462,9 @@
       <c r="AV319" s="1"/>
       <c r="AW319" s="1"/>
       <c r="AX319" s="1"/>
-    </row>
-    <row r="320" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY319" s="1"/>
+    </row>
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -21183,8 +21515,9 @@
       <c r="AV320" s="1"/>
       <c r="AW320" s="1"/>
       <c r="AX320" s="1"/>
-    </row>
-    <row r="321" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY320" s="1"/>
+    </row>
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -21235,8 +21568,9 @@
       <c r="AV321" s="1"/>
       <c r="AW321" s="1"/>
       <c r="AX321" s="1"/>
-    </row>
-    <row r="322" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY321" s="1"/>
+    </row>
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -21287,8 +21621,9 @@
       <c r="AV322" s="1"/>
       <c r="AW322" s="1"/>
       <c r="AX322" s="1"/>
-    </row>
-    <row r="323" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY322" s="1"/>
+    </row>
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -21339,8 +21674,9 @@
       <c r="AV323" s="1"/>
       <c r="AW323" s="1"/>
       <c r="AX323" s="1"/>
-    </row>
-    <row r="324" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY323" s="1"/>
+    </row>
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -21391,8 +21727,9 @@
       <c r="AV324" s="1"/>
       <c r="AW324" s="1"/>
       <c r="AX324" s="1"/>
-    </row>
-    <row r="325" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY324" s="1"/>
+    </row>
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -21443,8 +21780,9 @@
       <c r="AV325" s="1"/>
       <c r="AW325" s="1"/>
       <c r="AX325" s="1"/>
-    </row>
-    <row r="326" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY325" s="1"/>
+    </row>
+    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -21495,8 +21833,9 @@
       <c r="AV326" s="1"/>
       <c r="AW326" s="1"/>
       <c r="AX326" s="1"/>
-    </row>
-    <row r="327" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY326" s="1"/>
+    </row>
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -21547,8 +21886,9 @@
       <c r="AV327" s="1"/>
       <c r="AW327" s="1"/>
       <c r="AX327" s="1"/>
-    </row>
-    <row r="328" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY327" s="1"/>
+    </row>
+    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -21599,8 +21939,9 @@
       <c r="AV328" s="1"/>
       <c r="AW328" s="1"/>
       <c r="AX328" s="1"/>
-    </row>
-    <row r="329" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY328" s="1"/>
+    </row>
+    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -21651,8 +21992,9 @@
       <c r="AV329" s="1"/>
       <c r="AW329" s="1"/>
       <c r="AX329" s="1"/>
-    </row>
-    <row r="330" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY329" s="1"/>
+    </row>
+    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -21703,8 +22045,9 @@
       <c r="AV330" s="1"/>
       <c r="AW330" s="1"/>
       <c r="AX330" s="1"/>
-    </row>
-    <row r="331" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY330" s="1"/>
+    </row>
+    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -21755,8 +22098,9 @@
       <c r="AV331" s="1"/>
       <c r="AW331" s="1"/>
       <c r="AX331" s="1"/>
-    </row>
-    <row r="332" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY331" s="1"/>
+    </row>
+    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -21807,8 +22151,9 @@
       <c r="AV332" s="1"/>
       <c r="AW332" s="1"/>
       <c r="AX332" s="1"/>
-    </row>
-    <row r="333" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY332" s="1"/>
+    </row>
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -21859,8 +22204,9 @@
       <c r="AV333" s="1"/>
       <c r="AW333" s="1"/>
       <c r="AX333" s="1"/>
-    </row>
-    <row r="334" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY333" s="1"/>
+    </row>
+    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -21911,8 +22257,9 @@
       <c r="AV334" s="1"/>
       <c r="AW334" s="1"/>
       <c r="AX334" s="1"/>
-    </row>
-    <row r="335" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY334" s="1"/>
+    </row>
+    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -21963,8 +22310,9 @@
       <c r="AV335" s="1"/>
       <c r="AW335" s="1"/>
       <c r="AX335" s="1"/>
-    </row>
-    <row r="336" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY335" s="1"/>
+    </row>
+    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -22015,8 +22363,9 @@
       <c r="AV336" s="1"/>
       <c r="AW336" s="1"/>
       <c r="AX336" s="1"/>
-    </row>
-    <row r="337" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY336" s="1"/>
+    </row>
+    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -22067,8 +22416,9 @@
       <c r="AV337" s="1"/>
       <c r="AW337" s="1"/>
       <c r="AX337" s="1"/>
-    </row>
-    <row r="338" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY337" s="1"/>
+    </row>
+    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -22119,8 +22469,9 @@
       <c r="AV338" s="1"/>
       <c r="AW338" s="1"/>
       <c r="AX338" s="1"/>
-    </row>
-    <row r="339" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY338" s="1"/>
+    </row>
+    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -22171,8 +22522,9 @@
       <c r="AV339" s="1"/>
       <c r="AW339" s="1"/>
       <c r="AX339" s="1"/>
-    </row>
-    <row r="340" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY339" s="1"/>
+    </row>
+    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -22223,8 +22575,9 @@
       <c r="AV340" s="1"/>
       <c r="AW340" s="1"/>
       <c r="AX340" s="1"/>
-    </row>
-    <row r="341" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY340" s="1"/>
+    </row>
+    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -22275,8 +22628,9 @@
       <c r="AV341" s="1"/>
       <c r="AW341" s="1"/>
       <c r="AX341" s="1"/>
-    </row>
-    <row r="342" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY341" s="1"/>
+    </row>
+    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -22327,8 +22681,9 @@
       <c r="AV342" s="1"/>
       <c r="AW342" s="1"/>
       <c r="AX342" s="1"/>
-    </row>
-    <row r="343" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY342" s="1"/>
+    </row>
+    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -22379,8 +22734,9 @@
       <c r="AV343" s="1"/>
       <c r="AW343" s="1"/>
       <c r="AX343" s="1"/>
-    </row>
-    <row r="344" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY343" s="1"/>
+    </row>
+    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -22431,8 +22787,9 @@
       <c r="AV344" s="1"/>
       <c r="AW344" s="1"/>
       <c r="AX344" s="1"/>
-    </row>
-    <row r="345" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY344" s="1"/>
+    </row>
+    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -22483,8 +22840,9 @@
       <c r="AV345" s="1"/>
       <c r="AW345" s="1"/>
       <c r="AX345" s="1"/>
-    </row>
-    <row r="346" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY345" s="1"/>
+    </row>
+    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -22535,8 +22893,9 @@
       <c r="AV346" s="1"/>
       <c r="AW346" s="1"/>
       <c r="AX346" s="1"/>
-    </row>
-    <row r="347" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY346" s="1"/>
+    </row>
+    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -22587,8 +22946,9 @@
       <c r="AV347" s="1"/>
       <c r="AW347" s="1"/>
       <c r="AX347" s="1"/>
-    </row>
-    <row r="348" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY347" s="1"/>
+    </row>
+    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -22639,8 +22999,9 @@
       <c r="AV348" s="1"/>
       <c r="AW348" s="1"/>
       <c r="AX348" s="1"/>
-    </row>
-    <row r="349" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY348" s="1"/>
+    </row>
+    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -22691,8 +23052,9 @@
       <c r="AV349" s="1"/>
       <c r="AW349" s="1"/>
       <c r="AX349" s="1"/>
-    </row>
-    <row r="350" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY349" s="1"/>
+    </row>
+    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -22743,8 +23105,9 @@
       <c r="AV350" s="1"/>
       <c r="AW350" s="1"/>
       <c r="AX350" s="1"/>
-    </row>
-    <row r="351" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY350" s="1"/>
+    </row>
+    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -22795,8 +23158,9 @@
       <c r="AV351" s="1"/>
       <c r="AW351" s="1"/>
       <c r="AX351" s="1"/>
-    </row>
-    <row r="352" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY351" s="1"/>
+    </row>
+    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -22847,8 +23211,9 @@
       <c r="AV352" s="1"/>
       <c r="AW352" s="1"/>
       <c r="AX352" s="1"/>
-    </row>
-    <row r="353" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY352" s="1"/>
+    </row>
+    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -22899,8 +23264,9 @@
       <c r="AV353" s="1"/>
       <c r="AW353" s="1"/>
       <c r="AX353" s="1"/>
-    </row>
-    <row r="354" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY353" s="1"/>
+    </row>
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -22951,8 +23317,9 @@
       <c r="AV354" s="1"/>
       <c r="AW354" s="1"/>
       <c r="AX354" s="1"/>
-    </row>
-    <row r="355" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY354" s="1"/>
+    </row>
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -23003,8 +23370,9 @@
       <c r="AV355" s="1"/>
       <c r="AW355" s="1"/>
       <c r="AX355" s="1"/>
-    </row>
-    <row r="356" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY355" s="1"/>
+    </row>
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -23055,8 +23423,9 @@
       <c r="AV356" s="1"/>
       <c r="AW356" s="1"/>
       <c r="AX356" s="1"/>
-    </row>
-    <row r="357" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY356" s="1"/>
+    </row>
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -23107,8 +23476,9 @@
       <c r="AV357" s="1"/>
       <c r="AW357" s="1"/>
       <c r="AX357" s="1"/>
-    </row>
-    <row r="358" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY357" s="1"/>
+    </row>
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -23159,8 +23529,9 @@
       <c r="AV358" s="1"/>
       <c r="AW358" s="1"/>
       <c r="AX358" s="1"/>
-    </row>
-    <row r="359" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY358" s="1"/>
+    </row>
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -23211,8 +23582,9 @@
       <c r="AV359" s="1"/>
       <c r="AW359" s="1"/>
       <c r="AX359" s="1"/>
-    </row>
-    <row r="360" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY359" s="1"/>
+    </row>
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -23263,8 +23635,9 @@
       <c r="AV360" s="1"/>
       <c r="AW360" s="1"/>
       <c r="AX360" s="1"/>
-    </row>
-    <row r="361" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY360" s="1"/>
+    </row>
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -23315,8 +23688,9 @@
       <c r="AV361" s="1"/>
       <c r="AW361" s="1"/>
       <c r="AX361" s="1"/>
-    </row>
-    <row r="362" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY361" s="1"/>
+    </row>
+    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -23367,8 +23741,9 @@
       <c r="AV362" s="1"/>
       <c r="AW362" s="1"/>
       <c r="AX362" s="1"/>
-    </row>
-    <row r="363" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY362" s="1"/>
+    </row>
+    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -23419,8 +23794,9 @@
       <c r="AV363" s="1"/>
       <c r="AW363" s="1"/>
       <c r="AX363" s="1"/>
-    </row>
-    <row r="364" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY363" s="1"/>
+    </row>
+    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -23471,8 +23847,9 @@
       <c r="AV364" s="1"/>
       <c r="AW364" s="1"/>
       <c r="AX364" s="1"/>
-    </row>
-    <row r="365" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY364" s="1"/>
+    </row>
+    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -23523,8 +23900,9 @@
       <c r="AV365" s="1"/>
       <c r="AW365" s="1"/>
       <c r="AX365" s="1"/>
-    </row>
-    <row r="366" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY365" s="1"/>
+    </row>
+    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -23575,8 +23953,9 @@
       <c r="AV366" s="1"/>
       <c r="AW366" s="1"/>
       <c r="AX366" s="1"/>
-    </row>
-    <row r="367" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY366" s="1"/>
+    </row>
+    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -23627,8 +24006,9 @@
       <c r="AV367" s="1"/>
       <c r="AW367" s="1"/>
       <c r="AX367" s="1"/>
-    </row>
-    <row r="368" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY367" s="1"/>
+    </row>
+    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -23679,8 +24059,9 @@
       <c r="AV368" s="1"/>
       <c r="AW368" s="1"/>
       <c r="AX368" s="1"/>
-    </row>
-    <row r="369" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY368" s="1"/>
+    </row>
+    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -23731,8 +24112,9 @@
       <c r="AV369" s="1"/>
       <c r="AW369" s="1"/>
       <c r="AX369" s="1"/>
-    </row>
-    <row r="370" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY369" s="1"/>
+    </row>
+    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -23783,8 +24165,9 @@
       <c r="AV370" s="1"/>
       <c r="AW370" s="1"/>
       <c r="AX370" s="1"/>
-    </row>
-    <row r="371" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY370" s="1"/>
+    </row>
+    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -23835,8 +24218,9 @@
       <c r="AV371" s="1"/>
       <c r="AW371" s="1"/>
       <c r="AX371" s="1"/>
-    </row>
-    <row r="372" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY371" s="1"/>
+    </row>
+    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -23887,8 +24271,9 @@
       <c r="AV372" s="1"/>
       <c r="AW372" s="1"/>
       <c r="AX372" s="1"/>
-    </row>
-    <row r="373" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY372" s="1"/>
+    </row>
+    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -23939,8 +24324,9 @@
       <c r="AV373" s="1"/>
       <c r="AW373" s="1"/>
       <c r="AX373" s="1"/>
-    </row>
-    <row r="374" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY373" s="1"/>
+    </row>
+    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -23991,8 +24377,9 @@
       <c r="AV374" s="1"/>
       <c r="AW374" s="1"/>
       <c r="AX374" s="1"/>
-    </row>
-    <row r="375" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY374" s="1"/>
+    </row>
+    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -24043,8 +24430,9 @@
       <c r="AV375" s="1"/>
       <c r="AW375" s="1"/>
       <c r="AX375" s="1"/>
-    </row>
-    <row r="376" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY375" s="1"/>
+    </row>
+    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -24095,8 +24483,9 @@
       <c r="AV376" s="1"/>
       <c r="AW376" s="1"/>
       <c r="AX376" s="1"/>
-    </row>
-    <row r="377" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY376" s="1"/>
+    </row>
+    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -24147,8 +24536,9 @@
       <c r="AV377" s="1"/>
       <c r="AW377" s="1"/>
       <c r="AX377" s="1"/>
-    </row>
-    <row r="378" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY377" s="1"/>
+    </row>
+    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -24199,8 +24589,9 @@
       <c r="AV378" s="1"/>
       <c r="AW378" s="1"/>
       <c r="AX378" s="1"/>
-    </row>
-    <row r="379" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY378" s="1"/>
+    </row>
+    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -24251,8 +24642,9 @@
       <c r="AV379" s="1"/>
       <c r="AW379" s="1"/>
       <c r="AX379" s="1"/>
-    </row>
-    <row r="380" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY379" s="1"/>
+    </row>
+    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -24303,8 +24695,9 @@
       <c r="AV380" s="1"/>
       <c r="AW380" s="1"/>
       <c r="AX380" s="1"/>
-    </row>
-    <row r="381" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY380" s="1"/>
+    </row>
+    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -24355,8 +24748,9 @@
       <c r="AV381" s="1"/>
       <c r="AW381" s="1"/>
       <c r="AX381" s="1"/>
-    </row>
-    <row r="382" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY381" s="1"/>
+    </row>
+    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -24407,8 +24801,9 @@
       <c r="AV382" s="1"/>
       <c r="AW382" s="1"/>
       <c r="AX382" s="1"/>
-    </row>
-    <row r="383" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY382" s="1"/>
+    </row>
+    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -24459,8 +24854,9 @@
       <c r="AV383" s="1"/>
       <c r="AW383" s="1"/>
       <c r="AX383" s="1"/>
-    </row>
-    <row r="384" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY383" s="1"/>
+    </row>
+    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -24511,8 +24907,9 @@
       <c r="AV384" s="1"/>
       <c r="AW384" s="1"/>
       <c r="AX384" s="1"/>
-    </row>
-    <row r="385" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY384" s="1"/>
+    </row>
+    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -24563,8 +24960,9 @@
       <c r="AV385" s="1"/>
       <c r="AW385" s="1"/>
       <c r="AX385" s="1"/>
-    </row>
-    <row r="386" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY385" s="1"/>
+    </row>
+    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -24615,8 +25013,9 @@
       <c r="AV386" s="1"/>
       <c r="AW386" s="1"/>
       <c r="AX386" s="1"/>
-    </row>
-    <row r="387" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY386" s="1"/>
+    </row>
+    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -24667,8 +25066,9 @@
       <c r="AV387" s="1"/>
       <c r="AW387" s="1"/>
       <c r="AX387" s="1"/>
-    </row>
-    <row r="388" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY387" s="1"/>
+    </row>
+    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -24719,8 +25119,9 @@
       <c r="AV388" s="1"/>
       <c r="AW388" s="1"/>
       <c r="AX388" s="1"/>
-    </row>
-    <row r="389" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY388" s="1"/>
+    </row>
+    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -24771,8 +25172,9 @@
       <c r="AV389" s="1"/>
       <c r="AW389" s="1"/>
       <c r="AX389" s="1"/>
-    </row>
-    <row r="390" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY389" s="1"/>
+    </row>
+    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -24823,8 +25225,9 @@
       <c r="AV390" s="1"/>
       <c r="AW390" s="1"/>
       <c r="AX390" s="1"/>
-    </row>
-    <row r="391" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY390" s="1"/>
+    </row>
+    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -24875,8 +25278,9 @@
       <c r="AV391" s="1"/>
       <c r="AW391" s="1"/>
       <c r="AX391" s="1"/>
-    </row>
-    <row r="392" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY391" s="1"/>
+    </row>
+    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -24927,8 +25331,9 @@
       <c r="AV392" s="1"/>
       <c r="AW392" s="1"/>
       <c r="AX392" s="1"/>
-    </row>
-    <row r="393" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY392" s="1"/>
+    </row>
+    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -24979,8 +25384,9 @@
       <c r="AV393" s="1"/>
       <c r="AW393" s="1"/>
       <c r="AX393" s="1"/>
-    </row>
-    <row r="394" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY393" s="1"/>
+    </row>
+    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -25031,8 +25437,9 @@
       <c r="AV394" s="1"/>
       <c r="AW394" s="1"/>
       <c r="AX394" s="1"/>
-    </row>
-    <row r="395" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY394" s="1"/>
+    </row>
+    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -25083,8 +25490,9 @@
       <c r="AV395" s="1"/>
       <c r="AW395" s="1"/>
       <c r="AX395" s="1"/>
-    </row>
-    <row r="396" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY395" s="1"/>
+    </row>
+    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -25135,8 +25543,9 @@
       <c r="AV396" s="1"/>
       <c r="AW396" s="1"/>
       <c r="AX396" s="1"/>
-    </row>
-    <row r="397" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY396" s="1"/>
+    </row>
+    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -25187,8 +25596,9 @@
       <c r="AV397" s="1"/>
       <c r="AW397" s="1"/>
       <c r="AX397" s="1"/>
-    </row>
-    <row r="398" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY397" s="1"/>
+    </row>
+    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -25239,8 +25649,9 @@
       <c r="AV398" s="1"/>
       <c r="AW398" s="1"/>
       <c r="AX398" s="1"/>
-    </row>
-    <row r="399" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY398" s="1"/>
+    </row>
+    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -25291,8 +25702,9 @@
       <c r="AV399" s="1"/>
       <c r="AW399" s="1"/>
       <c r="AX399" s="1"/>
-    </row>
-    <row r="400" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY399" s="1"/>
+    </row>
+    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -25343,8 +25755,9 @@
       <c r="AV400" s="1"/>
       <c r="AW400" s="1"/>
       <c r="AX400" s="1"/>
-    </row>
-    <row r="401" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY400" s="1"/>
+    </row>
+    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -25395,8 +25808,9 @@
       <c r="AV401" s="1"/>
       <c r="AW401" s="1"/>
       <c r="AX401" s="1"/>
-    </row>
-    <row r="402" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY401" s="1"/>
+    </row>
+    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -25447,8 +25861,9 @@
       <c r="AV402" s="1"/>
       <c r="AW402" s="1"/>
       <c r="AX402" s="1"/>
-    </row>
-    <row r="403" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY402" s="1"/>
+    </row>
+    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -25499,8 +25914,9 @@
       <c r="AV403" s="1"/>
       <c r="AW403" s="1"/>
       <c r="AX403" s="1"/>
-    </row>
-    <row r="404" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY403" s="1"/>
+    </row>
+    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -25551,8 +25967,9 @@
       <c r="AV404" s="1"/>
       <c r="AW404" s="1"/>
       <c r="AX404" s="1"/>
-    </row>
-    <row r="405" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY404" s="1"/>
+    </row>
+    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -25603,8 +26020,9 @@
       <c r="AV405" s="1"/>
       <c r="AW405" s="1"/>
       <c r="AX405" s="1"/>
-    </row>
-    <row r="406" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY405" s="1"/>
+    </row>
+    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -25655,8 +26073,9 @@
       <c r="AV406" s="1"/>
       <c r="AW406" s="1"/>
       <c r="AX406" s="1"/>
-    </row>
-    <row r="407" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY406" s="1"/>
+    </row>
+    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -25707,8 +26126,9 @@
       <c r="AV407" s="1"/>
       <c r="AW407" s="1"/>
       <c r="AX407" s="1"/>
-    </row>
-    <row r="408" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY407" s="1"/>
+    </row>
+    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -25759,8 +26179,9 @@
       <c r="AV408" s="1"/>
       <c r="AW408" s="1"/>
       <c r="AX408" s="1"/>
-    </row>
-    <row r="409" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY408" s="1"/>
+    </row>
+    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -25811,8 +26232,9 @@
       <c r="AV409" s="1"/>
       <c r="AW409" s="1"/>
       <c r="AX409" s="1"/>
-    </row>
-    <row r="410" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY409" s="1"/>
+    </row>
+    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -25863,8 +26285,9 @@
       <c r="AV410" s="1"/>
       <c r="AW410" s="1"/>
       <c r="AX410" s="1"/>
-    </row>
-    <row r="411" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY410" s="1"/>
+    </row>
+    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -25915,8 +26338,9 @@
       <c r="AV411" s="1"/>
       <c r="AW411" s="1"/>
       <c r="AX411" s="1"/>
-    </row>
-    <row r="412" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY411" s="1"/>
+    </row>
+    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -25967,8 +26391,9 @@
       <c r="AV412" s="1"/>
       <c r="AW412" s="1"/>
       <c r="AX412" s="1"/>
-    </row>
-    <row r="413" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY412" s="1"/>
+    </row>
+    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -26019,8 +26444,9 @@
       <c r="AV413" s="1"/>
       <c r="AW413" s="1"/>
       <c r="AX413" s="1"/>
-    </row>
-    <row r="414" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY413" s="1"/>
+    </row>
+    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -26071,8 +26497,9 @@
       <c r="AV414" s="1"/>
       <c r="AW414" s="1"/>
       <c r="AX414" s="1"/>
-    </row>
-    <row r="415" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY414" s="1"/>
+    </row>
+    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -26123,8 +26550,9 @@
       <c r="AV415" s="1"/>
       <c r="AW415" s="1"/>
       <c r="AX415" s="1"/>
-    </row>
-    <row r="416" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY415" s="1"/>
+    </row>
+    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -26175,8 +26603,9 @@
       <c r="AV416" s="1"/>
       <c r="AW416" s="1"/>
       <c r="AX416" s="1"/>
-    </row>
-    <row r="417" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY416" s="1"/>
+    </row>
+    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -26227,8 +26656,9 @@
       <c r="AV417" s="1"/>
       <c r="AW417" s="1"/>
       <c r="AX417" s="1"/>
-    </row>
-    <row r="418" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY417" s="1"/>
+    </row>
+    <row r="418" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -26279,8 +26709,9 @@
       <c r="AV418" s="1"/>
       <c r="AW418" s="1"/>
       <c r="AX418" s="1"/>
-    </row>
-    <row r="419" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY418" s="1"/>
+    </row>
+    <row r="419" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -26331,8 +26762,9 @@
       <c r="AV419" s="1"/>
       <c r="AW419" s="1"/>
       <c r="AX419" s="1"/>
-    </row>
-    <row r="420" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY419" s="1"/>
+    </row>
+    <row r="420" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -26383,8 +26815,9 @@
       <c r="AV420" s="1"/>
       <c r="AW420" s="1"/>
       <c r="AX420" s="1"/>
-    </row>
-    <row r="421" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY420" s="1"/>
+    </row>
+    <row r="421" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -26435,8 +26868,9 @@
       <c r="AV421" s="1"/>
       <c r="AW421" s="1"/>
       <c r="AX421" s="1"/>
-    </row>
-    <row r="422" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY421" s="1"/>
+    </row>
+    <row r="422" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -26487,8 +26921,9 @@
       <c r="AV422" s="1"/>
       <c r="AW422" s="1"/>
       <c r="AX422" s="1"/>
-    </row>
-    <row r="423" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY422" s="1"/>
+    </row>
+    <row r="423" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -26539,8 +26974,9 @@
       <c r="AV423" s="1"/>
       <c r="AW423" s="1"/>
       <c r="AX423" s="1"/>
-    </row>
-    <row r="424" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY423" s="1"/>
+    </row>
+    <row r="424" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -26591,8 +27027,9 @@
       <c r="AV424" s="1"/>
       <c r="AW424" s="1"/>
       <c r="AX424" s="1"/>
-    </row>
-    <row r="425" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY424" s="1"/>
+    </row>
+    <row r="425" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -26643,8 +27080,9 @@
       <c r="AV425" s="1"/>
       <c r="AW425" s="1"/>
       <c r="AX425" s="1"/>
-    </row>
-    <row r="426" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY425" s="1"/>
+    </row>
+    <row r="426" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -26695,8 +27133,9 @@
       <c r="AV426" s="1"/>
       <c r="AW426" s="1"/>
       <c r="AX426" s="1"/>
-    </row>
-    <row r="427" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY426" s="1"/>
+    </row>
+    <row r="427" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -26747,8 +27186,9 @@
       <c r="AV427" s="1"/>
       <c r="AW427" s="1"/>
       <c r="AX427" s="1"/>
-    </row>
-    <row r="428" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY427" s="1"/>
+    </row>
+    <row r="428" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -26799,8 +27239,9 @@
       <c r="AV428" s="1"/>
       <c r="AW428" s="1"/>
       <c r="AX428" s="1"/>
-    </row>
-    <row r="429" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY428" s="1"/>
+    </row>
+    <row r="429" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -26851,8 +27292,9 @@
       <c r="AV429" s="1"/>
       <c r="AW429" s="1"/>
       <c r="AX429" s="1"/>
-    </row>
-    <row r="430" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY429" s="1"/>
+    </row>
+    <row r="430" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -26903,8 +27345,9 @@
       <c r="AV430" s="1"/>
       <c r="AW430" s="1"/>
       <c r="AX430" s="1"/>
-    </row>
-    <row r="431" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY430" s="1"/>
+    </row>
+    <row r="431" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -26955,8 +27398,9 @@
       <c r="AV431" s="1"/>
       <c r="AW431" s="1"/>
       <c r="AX431" s="1"/>
-    </row>
-    <row r="432" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY431" s="1"/>
+    </row>
+    <row r="432" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -27007,8 +27451,9 @@
       <c r="AV432" s="1"/>
       <c r="AW432" s="1"/>
       <c r="AX432" s="1"/>
-    </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY432" s="1"/>
+    </row>
+    <row r="433" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -27059,8 +27504,9 @@
       <c r="AV433" s="1"/>
       <c r="AW433" s="1"/>
       <c r="AX433" s="1"/>
-    </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY433" s="1"/>
+    </row>
+    <row r="434" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -27111,8 +27557,9 @@
       <c r="AV434" s="1"/>
       <c r="AW434" s="1"/>
       <c r="AX434" s="1"/>
-    </row>
-    <row r="435" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY434" s="1"/>
+    </row>
+    <row r="435" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -27163,8 +27610,9 @@
       <c r="AV435" s="1"/>
       <c r="AW435" s="1"/>
       <c r="AX435" s="1"/>
-    </row>
-    <row r="436" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY435" s="1"/>
+    </row>
+    <row r="436" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -27215,8 +27663,9 @@
       <c r="AV436" s="1"/>
       <c r="AW436" s="1"/>
       <c r="AX436" s="1"/>
-    </row>
-    <row r="437" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY436" s="1"/>
+    </row>
+    <row r="437" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -27267,8 +27716,9 @@
       <c r="AV437" s="1"/>
       <c r="AW437" s="1"/>
       <c r="AX437" s="1"/>
-    </row>
-    <row r="438" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY437" s="1"/>
+    </row>
+    <row r="438" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -27319,8 +27769,9 @@
       <c r="AV438" s="1"/>
       <c r="AW438" s="1"/>
       <c r="AX438" s="1"/>
-    </row>
-    <row r="439" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY438" s="1"/>
+    </row>
+    <row r="439" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -27371,8 +27822,9 @@
       <c r="AV439" s="1"/>
       <c r="AW439" s="1"/>
       <c r="AX439" s="1"/>
-    </row>
-    <row r="440" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY439" s="1"/>
+    </row>
+    <row r="440" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -27423,8 +27875,9 @@
       <c r="AV440" s="1"/>
       <c r="AW440" s="1"/>
       <c r="AX440" s="1"/>
-    </row>
-    <row r="441" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY440" s="1"/>
+    </row>
+    <row r="441" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -27475,8 +27928,9 @@
       <c r="AV441" s="1"/>
       <c r="AW441" s="1"/>
       <c r="AX441" s="1"/>
-    </row>
-    <row r="442" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY441" s="1"/>
+    </row>
+    <row r="442" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -27527,8 +27981,9 @@
       <c r="AV442" s="1"/>
       <c r="AW442" s="1"/>
       <c r="AX442" s="1"/>
-    </row>
-    <row r="443" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY442" s="1"/>
+    </row>
+    <row r="443" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -27579,8 +28034,9 @@
       <c r="AV443" s="1"/>
       <c r="AW443" s="1"/>
       <c r="AX443" s="1"/>
-    </row>
-    <row r="444" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY443" s="1"/>
+    </row>
+    <row r="444" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -27631,8 +28087,9 @@
       <c r="AV444" s="1"/>
       <c r="AW444" s="1"/>
       <c r="AX444" s="1"/>
-    </row>
-    <row r="445" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY444" s="1"/>
+    </row>
+    <row r="445" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -27683,8 +28140,9 @@
       <c r="AV445" s="1"/>
       <c r="AW445" s="1"/>
       <c r="AX445" s="1"/>
-    </row>
-    <row r="446" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY445" s="1"/>
+    </row>
+    <row r="446" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -27735,8 +28193,9 @@
       <c r="AV446" s="1"/>
       <c r="AW446" s="1"/>
       <c r="AX446" s="1"/>
-    </row>
-    <row r="447" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY446" s="1"/>
+    </row>
+    <row r="447" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -27787,8 +28246,9 @@
       <c r="AV447" s="1"/>
       <c r="AW447" s="1"/>
       <c r="AX447" s="1"/>
-    </row>
-    <row r="448" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY447" s="1"/>
+    </row>
+    <row r="448" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -27839,8 +28299,9 @@
       <c r="AV448" s="1"/>
       <c r="AW448" s="1"/>
       <c r="AX448" s="1"/>
-    </row>
-    <row r="449" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY448" s="1"/>
+    </row>
+    <row r="449" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -27891,8 +28352,9 @@
       <c r="AV449" s="1"/>
       <c r="AW449" s="1"/>
       <c r="AX449" s="1"/>
-    </row>
-    <row r="450" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY449" s="1"/>
+    </row>
+    <row r="450" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -27943,8 +28405,9 @@
       <c r="AV450" s="1"/>
       <c r="AW450" s="1"/>
       <c r="AX450" s="1"/>
-    </row>
-    <row r="451" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY450" s="1"/>
+    </row>
+    <row r="451" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -27995,8 +28458,9 @@
       <c r="AV451" s="1"/>
       <c r="AW451" s="1"/>
       <c r="AX451" s="1"/>
-    </row>
-    <row r="452" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY451" s="1"/>
+    </row>
+    <row r="452" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -28047,8 +28511,9 @@
       <c r="AV452" s="1"/>
       <c r="AW452" s="1"/>
       <c r="AX452" s="1"/>
-    </row>
-    <row r="453" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY452" s="1"/>
+    </row>
+    <row r="453" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -28099,8 +28564,9 @@
       <c r="AV453" s="1"/>
       <c r="AW453" s="1"/>
       <c r="AX453" s="1"/>
-    </row>
-    <row r="454" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY453" s="1"/>
+    </row>
+    <row r="454" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -28151,8 +28617,9 @@
       <c r="AV454" s="1"/>
       <c r="AW454" s="1"/>
       <c r="AX454" s="1"/>
-    </row>
-    <row r="455" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY454" s="1"/>
+    </row>
+    <row r="455" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -28203,8 +28670,9 @@
       <c r="AV455" s="1"/>
       <c r="AW455" s="1"/>
       <c r="AX455" s="1"/>
-    </row>
-    <row r="456" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY455" s="1"/>
+    </row>
+    <row r="456" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -28255,8 +28723,9 @@
       <c r="AV456" s="1"/>
       <c r="AW456" s="1"/>
       <c r="AX456" s="1"/>
-    </row>
-    <row r="457" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY456" s="1"/>
+    </row>
+    <row r="457" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -28307,8 +28776,9 @@
       <c r="AV457" s="1"/>
       <c r="AW457" s="1"/>
       <c r="AX457" s="1"/>
-    </row>
-    <row r="458" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY457" s="1"/>
+    </row>
+    <row r="458" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -28359,8 +28829,9 @@
       <c r="AV458" s="1"/>
       <c r="AW458" s="1"/>
       <c r="AX458" s="1"/>
-    </row>
-    <row r="459" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY458" s="1"/>
+    </row>
+    <row r="459" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -28411,8 +28882,9 @@
       <c r="AV459" s="1"/>
       <c r="AW459" s="1"/>
       <c r="AX459" s="1"/>
-    </row>
-    <row r="460" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY459" s="1"/>
+    </row>
+    <row r="460" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -28463,8 +28935,9 @@
       <c r="AV460" s="1"/>
       <c r="AW460" s="1"/>
       <c r="AX460" s="1"/>
-    </row>
-    <row r="461" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY460" s="1"/>
+    </row>
+    <row r="461" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -28515,8 +28988,9 @@
       <c r="AV461" s="1"/>
       <c r="AW461" s="1"/>
       <c r="AX461" s="1"/>
-    </row>
-    <row r="462" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY461" s="1"/>
+    </row>
+    <row r="462" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -28567,8 +29041,9 @@
       <c r="AV462" s="1"/>
       <c r="AW462" s="1"/>
       <c r="AX462" s="1"/>
-    </row>
-    <row r="463" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY462" s="1"/>
+    </row>
+    <row r="463" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -28619,8 +29094,9 @@
       <c r="AV463" s="1"/>
       <c r="AW463" s="1"/>
       <c r="AX463" s="1"/>
-    </row>
-    <row r="464" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY463" s="1"/>
+    </row>
+    <row r="464" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -28671,8 +29147,9 @@
       <c r="AV464" s="1"/>
       <c r="AW464" s="1"/>
       <c r="AX464" s="1"/>
-    </row>
-    <row r="465" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY464" s="1"/>
+    </row>
+    <row r="465" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -28723,8 +29200,9 @@
       <c r="AV465" s="1"/>
       <c r="AW465" s="1"/>
       <c r="AX465" s="1"/>
-    </row>
-    <row r="466" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY465" s="1"/>
+    </row>
+    <row r="466" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -28775,8 +29253,9 @@
       <c r="AV466" s="1"/>
       <c r="AW466" s="1"/>
       <c r="AX466" s="1"/>
-    </row>
-    <row r="467" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY466" s="1"/>
+    </row>
+    <row r="467" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -28827,8 +29306,9 @@
       <c r="AV467" s="1"/>
       <c r="AW467" s="1"/>
       <c r="AX467" s="1"/>
-    </row>
-    <row r="468" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY467" s="1"/>
+    </row>
+    <row r="468" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -28879,8 +29359,9 @@
       <c r="AV468" s="1"/>
       <c r="AW468" s="1"/>
       <c r="AX468" s="1"/>
-    </row>
-    <row r="469" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY468" s="1"/>
+    </row>
+    <row r="469" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -28931,8 +29412,9 @@
       <c r="AV469" s="1"/>
       <c r="AW469" s="1"/>
       <c r="AX469" s="1"/>
-    </row>
-    <row r="470" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY469" s="1"/>
+    </row>
+    <row r="470" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -28983,8 +29465,9 @@
       <c r="AV470" s="1"/>
       <c r="AW470" s="1"/>
       <c r="AX470" s="1"/>
-    </row>
-    <row r="471" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY470" s="1"/>
+    </row>
+    <row r="471" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -29035,8 +29518,9 @@
       <c r="AV471" s="1"/>
       <c r="AW471" s="1"/>
       <c r="AX471" s="1"/>
-    </row>
-    <row r="472" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY471" s="1"/>
+    </row>
+    <row r="472" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -29087,8 +29571,9 @@
       <c r="AV472" s="1"/>
       <c r="AW472" s="1"/>
       <c r="AX472" s="1"/>
-    </row>
-    <row r="473" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY472" s="1"/>
+    </row>
+    <row r="473" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -29139,8 +29624,9 @@
       <c r="AV473" s="1"/>
       <c r="AW473" s="1"/>
       <c r="AX473" s="1"/>
-    </row>
-    <row r="474" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY473" s="1"/>
+    </row>
+    <row r="474" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -29191,8 +29677,9 @@
       <c r="AV474" s="1"/>
       <c r="AW474" s="1"/>
       <c r="AX474" s="1"/>
-    </row>
-    <row r="475" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY474" s="1"/>
+    </row>
+    <row r="475" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -29243,8 +29730,9 @@
       <c r="AV475" s="1"/>
       <c r="AW475" s="1"/>
       <c r="AX475" s="1"/>
-    </row>
-    <row r="476" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY475" s="1"/>
+    </row>
+    <row r="476" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -29295,8 +29783,9 @@
       <c r="AV476" s="1"/>
       <c r="AW476" s="1"/>
       <c r="AX476" s="1"/>
-    </row>
-    <row r="477" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY476" s="1"/>
+    </row>
+    <row r="477" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -29347,8 +29836,9 @@
       <c r="AV477" s="1"/>
       <c r="AW477" s="1"/>
       <c r="AX477" s="1"/>
-    </row>
-    <row r="478" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY477" s="1"/>
+    </row>
+    <row r="478" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -29399,8 +29889,9 @@
       <c r="AV478" s="1"/>
       <c r="AW478" s="1"/>
       <c r="AX478" s="1"/>
-    </row>
-    <row r="479" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY478" s="1"/>
+    </row>
+    <row r="479" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -29451,8 +29942,9 @@
       <c r="AV479" s="1"/>
       <c r="AW479" s="1"/>
       <c r="AX479" s="1"/>
-    </row>
-    <row r="480" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY479" s="1"/>
+    </row>
+    <row r="480" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -29503,8 +29995,9 @@
       <c r="AV480" s="1"/>
       <c r="AW480" s="1"/>
       <c r="AX480" s="1"/>
-    </row>
-    <row r="481" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY480" s="1"/>
+    </row>
+    <row r="481" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -29555,8 +30048,9 @@
       <c r="AV481" s="1"/>
       <c r="AW481" s="1"/>
       <c r="AX481" s="1"/>
-    </row>
-    <row r="482" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY481" s="1"/>
+    </row>
+    <row r="482" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -29607,8 +30101,9 @@
       <c r="AV482" s="1"/>
       <c r="AW482" s="1"/>
       <c r="AX482" s="1"/>
-    </row>
-    <row r="483" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY482" s="1"/>
+    </row>
+    <row r="483" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -29659,8 +30154,9 @@
       <c r="AV483" s="1"/>
       <c r="AW483" s="1"/>
       <c r="AX483" s="1"/>
-    </row>
-    <row r="484" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY483" s="1"/>
+    </row>
+    <row r="484" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -29711,8 +30207,9 @@
       <c r="AV484" s="1"/>
       <c r="AW484" s="1"/>
       <c r="AX484" s="1"/>
-    </row>
-    <row r="485" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY484" s="1"/>
+    </row>
+    <row r="485" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -29763,8 +30260,9 @@
       <c r="AV485" s="1"/>
       <c r="AW485" s="1"/>
       <c r="AX485" s="1"/>
-    </row>
-    <row r="486" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY485" s="1"/>
+    </row>
+    <row r="486" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -29815,8 +30313,9 @@
       <c r="AV486" s="1"/>
       <c r="AW486" s="1"/>
       <c r="AX486" s="1"/>
-    </row>
-    <row r="487" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY486" s="1"/>
+    </row>
+    <row r="487" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -29867,8 +30366,9 @@
       <c r="AV487" s="1"/>
       <c r="AW487" s="1"/>
       <c r="AX487" s="1"/>
-    </row>
-    <row r="488" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY487" s="1"/>
+    </row>
+    <row r="488" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -29919,8 +30419,9 @@
       <c r="AV488" s="1"/>
       <c r="AW488" s="1"/>
       <c r="AX488" s="1"/>
-    </row>
-    <row r="489" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY488" s="1"/>
+    </row>
+    <row r="489" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -29971,8 +30472,9 @@
       <c r="AV489" s="1"/>
       <c r="AW489" s="1"/>
       <c r="AX489" s="1"/>
-    </row>
-    <row r="490" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY489" s="1"/>
+    </row>
+    <row r="490" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -30023,8 +30525,9 @@
       <c r="AV490" s="1"/>
       <c r="AW490" s="1"/>
       <c r="AX490" s="1"/>
-    </row>
-    <row r="491" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY490" s="1"/>
+    </row>
+    <row r="491" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -30075,8 +30578,9 @@
       <c r="AV491" s="1"/>
       <c r="AW491" s="1"/>
       <c r="AX491" s="1"/>
-    </row>
-    <row r="492" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY491" s="1"/>
+    </row>
+    <row r="492" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -30127,8 +30631,9 @@
       <c r="AV492" s="1"/>
       <c r="AW492" s="1"/>
       <c r="AX492" s="1"/>
-    </row>
-    <row r="493" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY492" s="1"/>
+    </row>
+    <row r="493" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -30179,8 +30684,9 @@
       <c r="AV493" s="1"/>
       <c r="AW493" s="1"/>
       <c r="AX493" s="1"/>
-    </row>
-    <row r="494" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY493" s="1"/>
+    </row>
+    <row r="494" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -30231,8 +30737,9 @@
       <c r="AV494" s="1"/>
       <c r="AW494" s="1"/>
       <c r="AX494" s="1"/>
-    </row>
-    <row r="495" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY494" s="1"/>
+    </row>
+    <row r="495" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -30283,8 +30790,9 @@
       <c r="AV495" s="1"/>
       <c r="AW495" s="1"/>
       <c r="AX495" s="1"/>
-    </row>
-    <row r="496" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY495" s="1"/>
+    </row>
+    <row r="496" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -30335,8 +30843,9 @@
       <c r="AV496" s="1"/>
       <c r="AW496" s="1"/>
       <c r="AX496" s="1"/>
-    </row>
-    <row r="497" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY496" s="1"/>
+    </row>
+    <row r="497" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -30387,8 +30896,9 @@
       <c r="AV497" s="1"/>
       <c r="AW497" s="1"/>
       <c r="AX497" s="1"/>
-    </row>
-    <row r="498" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY497" s="1"/>
+    </row>
+    <row r="498" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -30439,8 +30949,9 @@
       <c r="AV498" s="1"/>
       <c r="AW498" s="1"/>
       <c r="AX498" s="1"/>
-    </row>
-    <row r="499" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY498" s="1"/>
+    </row>
+    <row r="499" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -30491,8 +31002,9 @@
       <c r="AV499" s="1"/>
       <c r="AW499" s="1"/>
       <c r="AX499" s="1"/>
-    </row>
-    <row r="500" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY499" s="1"/>
+    </row>
+    <row r="500" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -30543,9 +31055,10 @@
       <c r="AV500" s="1"/>
       <c r="AW500" s="1"/>
       <c r="AX500" s="1"/>
+      <c r="AY500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AG37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
